--- a/Data/project_db_test_publish.xlsx
+++ b/Data/project_db_test_publish.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ayeletgoldstein/Dropbox/Hadassah College/Courses/AI in Medicine/בינה מלאכותית ברפואה _ MDSS_18/project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yfat\PycharmProjects\Temporal-Data-Maintenance-System-project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B252714A-A852-CB46-A633-0E315946D16E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E7B10A-747A-4560-9EB5-476038F47A7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="1160" windowWidth="22760" windowHeight="13640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">גיליון1!$A$1:$G$257</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">גיליון1!$A$1:$H$257</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="46">
   <si>
     <t>Value</t>
   </si>
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t>76477-9</t>
+  </si>
+  <si>
+    <t>Valid stop time</t>
   </si>
 </sst>
 </file>
@@ -573,26 +576,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J271"/>
+  <dimension ref="A1:K271"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A250" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1640625" style="1"/>
+    <col min="4" max="4" width="10.81640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6328125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="16" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.453125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -611,12 +614,15 @@
       <c r="F1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="6"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I1" s="6"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -636,11 +642,14 @@
         <v>43237.549305555556</v>
       </c>
       <c r="G2" s="5">
+        <v>43237.549305555556</v>
+      </c>
+      <c r="H2" s="5">
         <v>43247.416666666664</v>
       </c>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -660,13 +669,16 @@
         <v>43237.549305555556</v>
       </c>
       <c r="G3" s="5">
+        <v>43237.549305555556</v>
+      </c>
+      <c r="H3" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="5"/>
+      <c r="I3" s="7"/>
       <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
@@ -686,13 +698,16 @@
         <v>43238.625</v>
       </c>
       <c r="G4" s="5">
+        <v>43238.625</v>
+      </c>
+      <c r="H4" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -712,13 +727,16 @@
         <v>43237.708333333336</v>
       </c>
       <c r="G5" s="5">
+        <v>43237.708333333336</v>
+      </c>
+      <c r="H5" s="5">
         <v>43240.416666666664</v>
       </c>
-      <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
@@ -738,13 +756,16 @@
         <v>43238.458333333336</v>
       </c>
       <c r="G6" s="5">
+        <v>43238.458333333336</v>
+      </c>
+      <c r="H6" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -764,13 +785,16 @@
         <v>43238.541666666664</v>
       </c>
       <c r="G7" s="5">
+        <v>43238.541666666664</v>
+      </c>
+      <c r="H7" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
@@ -790,13 +814,16 @@
         <v>43238.791666666664</v>
       </c>
       <c r="G8" s="5">
+        <v>43238.791666666664</v>
+      </c>
+      <c r="H8" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
@@ -816,13 +843,16 @@
         <v>43239.127083333333</v>
       </c>
       <c r="G9" s="5">
+        <v>43239.127083333333</v>
+      </c>
+      <c r="H9" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
@@ -842,13 +872,16 @@
         <v>43240.458333333336</v>
       </c>
       <c r="G10" s="5">
+        <v>43240.458333333336</v>
+      </c>
+      <c r="H10" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
@@ -868,13 +901,16 @@
         <v>43241.291666666664</v>
       </c>
       <c r="G11" s="5">
+        <v>43241.291666666664</v>
+      </c>
+      <c r="H11" s="5">
         <v>43247.416666666664</v>
       </c>
-      <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
-    </row>
-    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
@@ -894,13 +930,16 @@
         <v>43239.115277777775</v>
       </c>
       <c r="G12" s="5">
+        <v>43239.115277777775</v>
+      </c>
+      <c r="H12" s="5">
         <v>43240.416666666664</v>
       </c>
-      <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
-    </row>
-    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K12" s="5"/>
+    </row>
+    <row r="13" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
@@ -920,13 +959,16 @@
         <v>43240.089583333334</v>
       </c>
       <c r="G13" s="5">
+        <v>43240.089583333334</v>
+      </c>
+      <c r="H13" s="5">
         <v>43240.416666666664</v>
       </c>
-      <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
-    </row>
-    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
@@ -946,13 +988,16 @@
         <v>43241.113194444442</v>
       </c>
       <c r="G14" s="5">
+        <v>43241.113194444442</v>
+      </c>
+      <c r="H14" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
-    </row>
-    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -972,13 +1017,16 @@
         <v>43239.115277777775</v>
       </c>
       <c r="G15" s="5">
+        <v>43239.115277777775</v>
+      </c>
+      <c r="H15" s="5">
         <v>43240.416666666664</v>
       </c>
-      <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
-    </row>
-    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
@@ -998,13 +1046,16 @@
         <v>43240.089583333334</v>
       </c>
       <c r="G16" s="5">
+        <v>43240.089583333334</v>
+      </c>
+      <c r="H16" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
-    </row>
-    <row r="17" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
@@ -1024,13 +1075,16 @@
         <v>43241.113194444442</v>
       </c>
       <c r="G17" s="5">
+        <v>43241.113194444442</v>
+      </c>
+      <c r="H17" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
-    </row>
-    <row r="18" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>33</v>
       </c>
@@ -1050,13 +1104,16 @@
         <v>43237.414583333331</v>
       </c>
       <c r="G18" s="5">
+        <v>43237.414583333331</v>
+      </c>
+      <c r="H18" s="5">
         <v>43240.416666666664</v>
       </c>
-      <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
-    </row>
-    <row r="19" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>33</v>
       </c>
@@ -1076,13 +1133,16 @@
         <v>43237.444444444445</v>
       </c>
       <c r="G19" s="5">
+        <v>43237.444444444445</v>
+      </c>
+      <c r="H19" s="5">
         <v>43240.416666666664</v>
       </c>
-      <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
-    </row>
-    <row r="20" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K19" s="5"/>
+    </row>
+    <row r="20" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>33</v>
       </c>
@@ -1102,13 +1162,16 @@
         <v>43237.486805555556</v>
       </c>
       <c r="G20" s="5">
+        <v>43237.486805555556</v>
+      </c>
+      <c r="H20" s="5">
         <v>43240.416666666664</v>
       </c>
-      <c r="H20" s="5"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
-    </row>
-    <row r="21" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K20" s="5"/>
+    </row>
+    <row r="21" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
@@ -1128,13 +1191,16 @@
         <v>43237.549305555556</v>
       </c>
       <c r="G21" s="5">
+        <v>43237.549305555556</v>
+      </c>
+      <c r="H21" s="5">
         <v>43240.416666666664</v>
       </c>
-      <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
-    </row>
-    <row r="22" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K21" s="5"/>
+    </row>
+    <row r="22" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>33</v>
       </c>
@@ -1154,13 +1220,16 @@
         <v>43237.618750000001</v>
       </c>
       <c r="G22" s="5">
+        <v>43237.618750000001</v>
+      </c>
+      <c r="H22" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
-    </row>
-    <row r="23" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K22" s="5"/>
+    </row>
+    <row r="23" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
@@ -1180,13 +1249,16 @@
         <v>43237.666666666664</v>
       </c>
       <c r="G23" s="5">
+        <v>43237.666666666664</v>
+      </c>
+      <c r="H23" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H23" s="5"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
-    </row>
-    <row r="24" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K23" s="5"/>
+    </row>
+    <row r="24" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>33</v>
       </c>
@@ -1206,13 +1278,16 @@
         <v>43237.708333333336</v>
       </c>
       <c r="G24" s="5">
+        <v>43237.708333333336</v>
+      </c>
+      <c r="H24" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H24" s="5"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
-    </row>
-    <row r="25" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K24" s="5"/>
+    </row>
+    <row r="25" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>33</v>
       </c>
@@ -1232,13 +1307,16 @@
         <v>43237.75</v>
       </c>
       <c r="G25" s="5">
+        <v>43237.75</v>
+      </c>
+      <c r="H25" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H25" s="5"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
-    </row>
-    <row r="26" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K25" s="5"/>
+    </row>
+    <row r="26" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>33</v>
       </c>
@@ -1258,13 +1336,16 @@
         <v>43237.791666666664</v>
       </c>
       <c r="G26" s="5">
+        <v>43237.791666666664</v>
+      </c>
+      <c r="H26" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H26" s="5"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
-    </row>
-    <row r="27" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K26" s="5"/>
+    </row>
+    <row r="27" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>33</v>
       </c>
@@ -1284,13 +1365,16 @@
         <v>43237.833333333336</v>
       </c>
       <c r="G27" s="5">
+        <v>43237.833333333336</v>
+      </c>
+      <c r="H27" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H27" s="5"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
-    </row>
-    <row r="28" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K27" s="5"/>
+    </row>
+    <row r="28" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
@@ -1310,13 +1394,16 @@
         <v>43237.875</v>
       </c>
       <c r="G28" s="5">
+        <v>43237.875</v>
+      </c>
+      <c r="H28" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H28" s="5"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
-    </row>
-    <row r="29" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K28" s="5"/>
+    </row>
+    <row r="29" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -1336,13 +1423,16 @@
         <v>43237.875</v>
       </c>
       <c r="G29" s="5">
+        <v>43237.875</v>
+      </c>
+      <c r="H29" s="5">
         <v>43243.583333333336</v>
       </c>
-      <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
-    </row>
-    <row r="30" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K29" s="5"/>
+    </row>
+    <row r="30" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -1362,13 +1452,16 @@
         <v>43237.958333333336</v>
       </c>
       <c r="G30" s="5">
+        <v>43237.958333333336</v>
+      </c>
+      <c r="H30" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
-    </row>
-    <row r="31" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K30" s="5"/>
+    </row>
+    <row r="31" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>28</v>
       </c>
@@ -1388,13 +1481,16 @@
         <v>43238.041666666664</v>
       </c>
       <c r="G31" s="5">
+        <v>43238.041666666664</v>
+      </c>
+      <c r="H31" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H31" s="5"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
-    </row>
-    <row r="32" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K31" s="5"/>
+    </row>
+    <row r="32" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>28</v>
       </c>
@@ -1414,13 +1510,16 @@
         <v>43238.083333333336</v>
       </c>
       <c r="G32" s="5">
+        <v>43238.083333333336</v>
+      </c>
+      <c r="H32" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H32" s="5"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
-    </row>
-    <row r="33" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K32" s="5"/>
+    </row>
+    <row r="33" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -1440,13 +1539,16 @@
         <v>43238.125</v>
       </c>
       <c r="G33" s="5">
+        <v>43238.125</v>
+      </c>
+      <c r="H33" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H33" s="5"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
-    </row>
-    <row r="34" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K33" s="5"/>
+    </row>
+    <row r="34" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -1466,13 +1568,16 @@
         <v>43238.291666666664</v>
       </c>
       <c r="G34" s="5">
+        <v>43238.291666666664</v>
+      </c>
+      <c r="H34" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H34" s="5"/>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
-    </row>
-    <row r="35" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K34" s="5"/>
+    </row>
+    <row r="35" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>32</v>
       </c>
@@ -1492,13 +1597,16 @@
         <v>43238.458333333336</v>
       </c>
       <c r="G35" s="5">
+        <v>43238.458333333336</v>
+      </c>
+      <c r="H35" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
-    </row>
-    <row r="36" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K35" s="5"/>
+    </row>
+    <row r="36" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>32</v>
       </c>
@@ -1518,13 +1626,16 @@
         <v>43238.652083333334</v>
       </c>
       <c r="G36" s="5">
+        <v>43238.652083333334</v>
+      </c>
+      <c r="H36" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
-    </row>
-    <row r="37" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K36" s="5"/>
+    </row>
+    <row r="37" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>32</v>
       </c>
@@ -1544,13 +1655,16 @@
         <v>43239.127083333333</v>
       </c>
       <c r="G37" s="5">
+        <v>43239.127083333333</v>
+      </c>
+      <c r="H37" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H37" s="5"/>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
-    </row>
-    <row r="38" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K37" s="5"/>
+    </row>
+    <row r="38" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>32</v>
       </c>
@@ -1570,13 +1684,16 @@
         <v>43239.115277777775</v>
       </c>
       <c r="G38" s="5">
+        <v>43239.115277777775</v>
+      </c>
+      <c r="H38" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H38" s="5"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
-    </row>
-    <row r="39" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K38" s="5"/>
+    </row>
+    <row r="39" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1596,13 +1713,16 @@
         <v>43239.456250000003</v>
       </c>
       <c r="G39" s="5">
+        <v>43239.456250000003</v>
+      </c>
+      <c r="H39" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H39" s="5"/>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
-    </row>
-    <row r="40" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K39" s="5"/>
+    </row>
+    <row r="40" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>31</v>
       </c>
@@ -1622,13 +1742,16 @@
         <v>43240.089583333334</v>
       </c>
       <c r="G40" s="5">
+        <v>43240.089583333334</v>
+      </c>
+      <c r="H40" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H40" s="5"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
-    </row>
-    <row r="41" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K40" s="5"/>
+    </row>
+    <row r="41" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>31</v>
       </c>
@@ -1648,13 +1771,16 @@
         <v>43240.458333333336</v>
       </c>
       <c r="G41" s="5">
+        <v>43240.458333333336</v>
+      </c>
+      <c r="H41" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H41" s="5"/>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
-    </row>
-    <row r="42" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K41" s="5"/>
+    </row>
+    <row r="42" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>31</v>
       </c>
@@ -1674,13 +1800,16 @@
         <v>43240.6875</v>
       </c>
       <c r="G42" s="5">
+        <v>43240.6875</v>
+      </c>
+      <c r="H42" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H42" s="5"/>
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
-    </row>
-    <row r="43" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K42" s="5"/>
+    </row>
+    <row r="43" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>31</v>
       </c>
@@ -1700,13 +1829,16 @@
         <v>43240.916666666664</v>
       </c>
       <c r="G43" s="5">
+        <v>43240.916666666664</v>
+      </c>
+      <c r="H43" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H43" s="5"/>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
-    </row>
-    <row r="44" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K43" s="5"/>
+    </row>
+    <row r="44" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>31</v>
       </c>
@@ -1726,13 +1858,16 @@
         <v>43241.113194444442</v>
       </c>
       <c r="G44" s="5">
+        <v>43241.113194444442</v>
+      </c>
+      <c r="H44" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H44" s="5"/>
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
-    </row>
-    <row r="45" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K44" s="5"/>
+    </row>
+    <row r="45" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>33</v>
       </c>
@@ -1752,13 +1887,16 @@
         <v>43237.604166666664</v>
       </c>
       <c r="G45" s="5">
+        <v>43237.604166666664</v>
+      </c>
+      <c r="H45" s="5">
         <v>43240.416666666664</v>
       </c>
-      <c r="H45" s="5"/>
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
-    </row>
-    <row r="46" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K45" s="5"/>
+    </row>
+    <row r="46" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>33</v>
       </c>
@@ -1778,13 +1916,16 @@
         <v>43237.708333333336</v>
       </c>
       <c r="G46" s="5">
+        <v>43237.708333333336</v>
+      </c>
+      <c r="H46" s="5">
         <v>43240.416666666664</v>
       </c>
-      <c r="H46" s="5"/>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
-    </row>
-    <row r="47" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K46" s="5"/>
+    </row>
+    <row r="47" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>33</v>
       </c>
@@ -1804,13 +1945,16 @@
         <v>43237.791666666664</v>
       </c>
       <c r="G47" s="5">
+        <v>43237.791666666664</v>
+      </c>
+      <c r="H47" s="5">
         <v>43240.416666666664</v>
       </c>
-      <c r="H47" s="5"/>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
-    </row>
-    <row r="48" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K47" s="5"/>
+    </row>
+    <row r="48" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>33</v>
       </c>
@@ -1830,13 +1974,16 @@
         <v>43237.958333333336</v>
       </c>
       <c r="G48" s="5">
+        <v>43237.958333333336</v>
+      </c>
+      <c r="H48" s="5">
         <v>43240.416666666664</v>
       </c>
-      <c r="H48" s="5"/>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
-    </row>
-    <row r="49" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K48" s="5"/>
+    </row>
+    <row r="49" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>33</v>
       </c>
@@ -1856,13 +2003,16 @@
         <v>43238.125</v>
       </c>
       <c r="G49" s="5">
+        <v>43238.125</v>
+      </c>
+      <c r="H49" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H49" s="5"/>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
-    </row>
-    <row r="50" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K49" s="5"/>
+    </row>
+    <row r="50" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>33</v>
       </c>
@@ -1882,13 +2032,16 @@
         <v>43238.291666666664</v>
       </c>
       <c r="G50" s="5">
+        <v>43238.291666666664</v>
+      </c>
+      <c r="H50" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H50" s="5"/>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
-    </row>
-    <row r="51" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K50" s="5"/>
+    </row>
+    <row r="51" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>28</v>
       </c>
@@ -1908,13 +2061,16 @@
         <v>43238.458333333336</v>
       </c>
       <c r="G51" s="5">
+        <v>43238.458333333336</v>
+      </c>
+      <c r="H51" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H51" s="5"/>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
-    </row>
-    <row r="52" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K51" s="5"/>
+    </row>
+    <row r="52" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>28</v>
       </c>
@@ -1934,13 +2090,16 @@
         <v>43238.625</v>
       </c>
       <c r="G52" s="5">
+        <v>43238.625</v>
+      </c>
+      <c r="H52" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H52" s="5"/>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
-    </row>
-    <row r="53" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K52" s="5"/>
+    </row>
+    <row r="53" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>28</v>
       </c>
@@ -1960,13 +2119,16 @@
         <v>43239.083333333336</v>
       </c>
       <c r="G53" s="5">
+        <v>43239.083333333336</v>
+      </c>
+      <c r="H53" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H53" s="5"/>
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
-    </row>
-    <row r="54" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K53" s="5"/>
+    </row>
+    <row r="54" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>28</v>
       </c>
@@ -1986,13 +2148,16 @@
         <v>43238.791666666664</v>
       </c>
       <c r="G54" s="5">
+        <v>43238.791666666664</v>
+      </c>
+      <c r="H54" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H54" s="5"/>
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
-    </row>
-    <row r="55" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K54" s="5"/>
+    </row>
+    <row r="55" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>32</v>
       </c>
@@ -2012,13 +2177,16 @@
         <v>43239.291666666664</v>
       </c>
       <c r="G55" s="5">
+        <v>43239.291666666664</v>
+      </c>
+      <c r="H55" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H55" s="5"/>
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
-    </row>
-    <row r="56" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K55" s="5"/>
+    </row>
+    <row r="56" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>32</v>
       </c>
@@ -2038,13 +2206,16 @@
         <v>43239.458333333336</v>
       </c>
       <c r="G56" s="5">
+        <v>43239.458333333336</v>
+      </c>
+      <c r="H56" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H56" s="5"/>
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
-    </row>
-    <row r="57" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K56" s="5"/>
+    </row>
+    <row r="57" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>32</v>
       </c>
@@ -2064,13 +2235,16 @@
         <v>43240.291666666664</v>
       </c>
       <c r="G57" s="5">
+        <v>43240.291666666664</v>
+      </c>
+      <c r="H57" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H57" s="5"/>
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
-    </row>
-    <row r="58" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K57" s="5"/>
+    </row>
+    <row r="58" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>31</v>
       </c>
@@ -2090,13 +2264,16 @@
         <v>43240.458333333336</v>
       </c>
       <c r="G58" s="5">
+        <v>43240.458333333336</v>
+      </c>
+      <c r="H58" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H58" s="5"/>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
-    </row>
-    <row r="59" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K58" s="5"/>
+    </row>
+    <row r="59" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>31</v>
       </c>
@@ -2116,13 +2293,16 @@
         <v>43241.291666666664</v>
       </c>
       <c r="G59" s="5">
+        <v>43241.291666666664</v>
+      </c>
+      <c r="H59" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H59" s="5"/>
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
-    </row>
-    <row r="60" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K59" s="5"/>
+    </row>
+    <row r="60" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>31</v>
       </c>
@@ -2142,13 +2322,16 @@
         <v>43241.4375</v>
       </c>
       <c r="G60" s="5">
+        <v>43241.4375</v>
+      </c>
+      <c r="H60" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H60" s="5"/>
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
-    </row>
-    <row r="61" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K60" s="5"/>
+    </row>
+    <row r="61" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>31</v>
       </c>
@@ -2168,13 +2351,16 @@
         <v>43241.625</v>
       </c>
       <c r="G61" s="5">
+        <v>43241.625</v>
+      </c>
+      <c r="H61" s="5">
         <v>43247.416666666664</v>
       </c>
-      <c r="H61" s="5"/>
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K61" s="5"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>28</v>
       </c>
@@ -2194,13 +2380,16 @@
         <v>43237.791666666664</v>
       </c>
       <c r="G62" s="5">
+        <v>43237.791666666664</v>
+      </c>
+      <c r="H62" s="5">
         <v>43240.416666666664</v>
       </c>
-      <c r="H62" s="5"/>
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K62" s="5"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>31</v>
       </c>
@@ -2220,13 +2409,16 @@
         <v>43237.958333333336</v>
       </c>
       <c r="G63" s="5">
+        <v>43237.958333333336</v>
+      </c>
+      <c r="H63" s="5">
         <v>43240.416666666664</v>
       </c>
-      <c r="H63" s="5"/>
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K63" s="5"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>32</v>
       </c>
@@ -2246,13 +2438,16 @@
         <v>43238.125</v>
       </c>
       <c r="G64" s="5">
+        <v>43238.125</v>
+      </c>
+      <c r="H64" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H64" s="5"/>
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K64" s="5"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>7</v>
       </c>
@@ -2272,13 +2467,16 @@
         <v>43240.291666666664</v>
       </c>
       <c r="G65" s="5">
+        <v>43240.291666666664</v>
+      </c>
+      <c r="H65" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H65" s="5"/>
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K65" s="5"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>32</v>
       </c>
@@ -2298,13 +2496,16 @@
         <v>43241.291666666664</v>
       </c>
       <c r="G66" s="5">
+        <v>43241.291666666664</v>
+      </c>
+      <c r="H66" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H66" s="5"/>
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K66" s="5"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>32</v>
       </c>
@@ -2324,13 +2525,16 @@
         <v>43237.444444444445</v>
       </c>
       <c r="G67" s="5">
+        <v>43237.444444444445</v>
+      </c>
+      <c r="H67" s="5">
         <v>43247.416666666664</v>
       </c>
-      <c r="H67" s="5"/>
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K67" s="5"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>32</v>
       </c>
@@ -2350,13 +2554,16 @@
         <v>43237.444444444445</v>
       </c>
       <c r="G68" s="5">
+        <v>43237.444444444445</v>
+      </c>
+      <c r="H68" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H68" s="5"/>
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K68" s="5"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>32</v>
       </c>
@@ -2376,13 +2583,16 @@
         <v>43238.374305555553</v>
       </c>
       <c r="G69" s="5">
+        <v>43238.374305555553</v>
+      </c>
+      <c r="H69" s="5">
         <v>43240.416666666664</v>
       </c>
-      <c r="H69" s="5"/>
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K69" s="5"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>32</v>
       </c>
@@ -2402,13 +2612,16 @@
         <v>43237.604166666664</v>
       </c>
       <c r="G70" s="5">
+        <v>43237.604166666664</v>
+      </c>
+      <c r="H70" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H70" s="5"/>
       <c r="I70" s="5"/>
       <c r="J70" s="5"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K70" s="5"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>32</v>
       </c>
@@ -2428,13 +2641,16 @@
         <v>43240.291666666664</v>
       </c>
       <c r="G71" s="5">
+        <v>43240.291666666664</v>
+      </c>
+      <c r="H71" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H71" s="5"/>
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K71" s="5"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>32</v>
       </c>
@@ -2454,13 +2670,16 @@
         <v>43237.875</v>
       </c>
       <c r="G72" s="5">
+        <v>43237.875</v>
+      </c>
+      <c r="H72" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H72" s="5"/>
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K72" s="5"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>32</v>
       </c>
@@ -2480,13 +2699,16 @@
         <v>43238.333333333336</v>
       </c>
       <c r="G73" s="5">
+        <v>43238.333333333336</v>
+      </c>
+      <c r="H73" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H73" s="5"/>
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
-    </row>
-    <row r="74" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K73" s="5"/>
+    </row>
+    <row r="74" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>33</v>
       </c>
@@ -2506,13 +2728,16 @@
         <v>43237.414583333331</v>
       </c>
       <c r="G74" s="5">
+        <v>43237.414583333331</v>
+      </c>
+      <c r="H74" s="5">
         <v>43247.416666666664</v>
       </c>
-      <c r="H74" s="5"/>
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
-    </row>
-    <row r="75" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K74" s="5"/>
+    </row>
+    <row r="75" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>33</v>
       </c>
@@ -2532,13 +2757,16 @@
         <v>43237.444444444445</v>
       </c>
       <c r="G75" s="5">
+        <v>43237.444444444445</v>
+      </c>
+      <c r="H75" s="5">
         <v>43247.416666666664</v>
       </c>
-      <c r="H75" s="5"/>
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
-    </row>
-    <row r="76" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K75" s="5"/>
+    </row>
+    <row r="76" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>33</v>
       </c>
@@ -2558,13 +2786,16 @@
         <v>43237.486805555556</v>
       </c>
       <c r="G76" s="5">
+        <v>43237.486805555556</v>
+      </c>
+      <c r="H76" s="5">
         <v>43247.416666666664</v>
       </c>
-      <c r="H76" s="5"/>
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
-    </row>
-    <row r="77" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K76" s="5"/>
+    </row>
+    <row r="77" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>33</v>
       </c>
@@ -2584,13 +2815,16 @@
         <v>43237.549305555556</v>
       </c>
       <c r="G77" s="5">
+        <v>43237.549305555556</v>
+      </c>
+      <c r="H77" s="5">
         <v>43247.416666666664</v>
       </c>
-      <c r="H77" s="5"/>
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
-    </row>
-    <row r="78" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K77" s="5"/>
+    </row>
+    <row r="78" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>33</v>
       </c>
@@ -2610,13 +2844,16 @@
         <v>43237.618750000001</v>
       </c>
       <c r="G78" s="5">
+        <v>43237.618750000001</v>
+      </c>
+      <c r="H78" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H78" s="5"/>
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
-    </row>
-    <row r="79" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K78" s="5"/>
+    </row>
+    <row r="79" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>28</v>
       </c>
@@ -2636,13 +2873,16 @@
         <v>43237.821527777778</v>
       </c>
       <c r="G79" s="5">
+        <v>43237.821527777778</v>
+      </c>
+      <c r="H79" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H79" s="5"/>
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
-    </row>
-    <row r="80" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K79" s="5"/>
+    </row>
+    <row r="80" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>28</v>
       </c>
@@ -2662,13 +2902,16 @@
         <v>43238.374305555553</v>
       </c>
       <c r="G80" s="5">
+        <v>43238.374305555553</v>
+      </c>
+      <c r="H80" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H80" s="5"/>
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
-    </row>
-    <row r="81" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K80" s="5"/>
+    </row>
+    <row r="81" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>28</v>
       </c>
@@ -2688,13 +2931,16 @@
         <v>43238.652083333334</v>
       </c>
       <c r="G81" s="5">
+        <v>43238.652083333334</v>
+      </c>
+      <c r="H81" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H81" s="5"/>
       <c r="I81" s="5"/>
       <c r="J81" s="5"/>
-    </row>
-    <row r="82" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K81" s="5"/>
+    </row>
+    <row r="82" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>32</v>
       </c>
@@ -2714,13 +2960,16 @@
         <v>43239.127083333333</v>
       </c>
       <c r="G82" s="5">
+        <v>43239.127083333333</v>
+      </c>
+      <c r="H82" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H82" s="5"/>
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
-    </row>
-    <row r="83" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K82" s="5"/>
+    </row>
+    <row r="83" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>32</v>
       </c>
@@ -2740,13 +2989,16 @@
         <v>43239.206250000003</v>
       </c>
       <c r="G83" s="5">
+        <v>43239.206250000003</v>
+      </c>
+      <c r="H83" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H83" s="5"/>
       <c r="I83" s="5"/>
       <c r="J83" s="5"/>
-    </row>
-    <row r="84" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K83" s="5"/>
+    </row>
+    <row r="84" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>32</v>
       </c>
@@ -2766,13 +3018,16 @@
         <v>43237.414583333331</v>
       </c>
       <c r="G84" s="5">
+        <v>43237.414583333331</v>
+      </c>
+      <c r="H84" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H84" s="5"/>
       <c r="I84" s="5"/>
       <c r="J84" s="5"/>
-    </row>
-    <row r="85" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K84" s="5"/>
+    </row>
+    <row r="85" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>32</v>
       </c>
@@ -2792,13 +3047,16 @@
         <v>43237.444444444445</v>
       </c>
       <c r="G85" s="5">
+        <v>43237.444444444445</v>
+      </c>
+      <c r="H85" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H85" s="5"/>
       <c r="I85" s="5"/>
       <c r="J85" s="5"/>
-    </row>
-    <row r="86" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K85" s="5"/>
+    </row>
+    <row r="86" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>31</v>
       </c>
@@ -2818,13 +3076,16 @@
         <v>43237.486805555556</v>
       </c>
       <c r="G86" s="5">
+        <v>43237.486805555556</v>
+      </c>
+      <c r="H86" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H86" s="5"/>
       <c r="I86" s="5"/>
       <c r="J86" s="5"/>
-    </row>
-    <row r="87" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K86" s="5"/>
+    </row>
+    <row r="87" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>31</v>
       </c>
@@ -2844,13 +3105,16 @@
         <v>43237.549305555556</v>
       </c>
       <c r="G87" s="5">
+        <v>43237.549305555556</v>
+      </c>
+      <c r="H87" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H87" s="5"/>
       <c r="I87" s="5"/>
       <c r="J87" s="5"/>
-    </row>
-    <row r="88" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K87" s="5"/>
+    </row>
+    <row r="88" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>31</v>
       </c>
@@ -2870,13 +3134,16 @@
         <v>43237.618750000001</v>
       </c>
       <c r="G88" s="5">
+        <v>43237.618750000001</v>
+      </c>
+      <c r="H88" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H88" s="5"/>
       <c r="I88" s="5"/>
       <c r="J88" s="5"/>
-    </row>
-    <row r="89" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K88" s="5"/>
+    </row>
+    <row r="89" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>31</v>
       </c>
@@ -2896,13 +3163,16 @@
         <v>43237.821527777778</v>
       </c>
       <c r="G89" s="5">
+        <v>43237.821527777778</v>
+      </c>
+      <c r="H89" s="5">
         <v>43249.416666666664</v>
       </c>
-      <c r="H89" s="5"/>
       <c r="I89" s="5"/>
       <c r="J89" s="5"/>
-    </row>
-    <row r="90" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K89" s="5"/>
+    </row>
+    <row r="90" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>31</v>
       </c>
@@ -2922,13 +3192,16 @@
         <v>43238.374305555553</v>
       </c>
       <c r="G90" s="5">
+        <v>43238.374305555553</v>
+      </c>
+      <c r="H90" s="5">
         <v>43250.416666666664</v>
       </c>
-      <c r="H90" s="5"/>
       <c r="I90" s="5"/>
       <c r="J90" s="5"/>
-    </row>
-    <row r="91" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K90" s="5"/>
+    </row>
+    <row r="91" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>31</v>
       </c>
@@ -2948,13 +3221,16 @@
         <v>43238.652083333334</v>
       </c>
       <c r="G91" s="5">
+        <v>43238.652083333334</v>
+      </c>
+      <c r="H91" s="5">
         <v>43251.416666666664</v>
       </c>
-      <c r="H91" s="5"/>
       <c r="I91" s="5"/>
       <c r="J91" s="5"/>
-    </row>
-    <row r="92" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K91" s="5"/>
+    </row>
+    <row r="92" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>31</v>
       </c>
@@ -2974,13 +3250,16 @@
         <v>43239.127083333333</v>
       </c>
       <c r="G92" s="5">
+        <v>43239.127083333333</v>
+      </c>
+      <c r="H92" s="5">
         <v>43240.416666666664</v>
       </c>
-      <c r="H92" s="5"/>
       <c r="I92" s="5"/>
       <c r="J92" s="5"/>
-    </row>
-    <row r="93" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K92" s="5"/>
+    </row>
+    <row r="93" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>31</v>
       </c>
@@ -3000,13 +3279,16 @@
         <v>43239.206250000003</v>
       </c>
       <c r="G93" s="5">
+        <v>43239.206250000003</v>
+      </c>
+      <c r="H93" s="5">
         <v>43240.416666666664</v>
       </c>
-      <c r="H93" s="5"/>
       <c r="I93" s="5"/>
       <c r="J93" s="5"/>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K93" s="5"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>32</v>
       </c>
@@ -3026,13 +3308,16 @@
         <v>43237.486805555556</v>
       </c>
       <c r="G94" s="5">
+        <v>43237.486805555556</v>
+      </c>
+      <c r="H94" s="5">
         <v>43240.416666666664</v>
       </c>
-      <c r="H94" s="5"/>
       <c r="I94" s="5"/>
       <c r="J94" s="5"/>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K94" s="5"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>32</v>
       </c>
@@ -3052,13 +3337,16 @@
         <v>43237.664583333331</v>
       </c>
       <c r="G95" s="5">
+        <v>43237.664583333331</v>
+      </c>
+      <c r="H95" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H95" s="5"/>
       <c r="I95" s="5"/>
       <c r="J95" s="5"/>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K95" s="5"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>32</v>
       </c>
@@ -3078,13 +3366,16 @@
         <v>43237.497916666667</v>
       </c>
       <c r="G96" s="5">
+        <v>43237.497916666667</v>
+      </c>
+      <c r="H96" s="5">
         <v>43247.416666666664</v>
       </c>
-      <c r="H96" s="5"/>
       <c r="I96" s="5"/>
       <c r="J96" s="5"/>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K96" s="5"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>32</v>
       </c>
@@ -3104,13 +3395,16 @@
         <v>43237.789583333331</v>
       </c>
       <c r="G97" s="5">
+        <v>43237.789583333331</v>
+      </c>
+      <c r="H97" s="5">
         <v>43247.416666666664</v>
       </c>
-      <c r="H97" s="5"/>
       <c r="I97" s="5"/>
       <c r="J97" s="5"/>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K97" s="5"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>32</v>
       </c>
@@ -3130,13 +3424,16 @@
         <v>43237.872916666667</v>
       </c>
       <c r="G98" s="5">
+        <v>43237.872916666667</v>
+      </c>
+      <c r="H98" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H98" s="5"/>
       <c r="I98" s="5"/>
       <c r="J98" s="5"/>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K98" s="5"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>32</v>
       </c>
@@ -3156,13 +3453,16 @@
         <v>43238.652083333334</v>
       </c>
       <c r="G99" s="5">
+        <v>43238.652083333334</v>
+      </c>
+      <c r="H99" s="5">
         <v>43240.416666666664</v>
       </c>
-      <c r="H99" s="5"/>
       <c r="I99" s="5"/>
       <c r="J99" s="5"/>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K99" s="5"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>32</v>
       </c>
@@ -3182,13 +3482,16 @@
         <v>43239.458333333336</v>
       </c>
       <c r="G100" s="5">
+        <v>43239.458333333336</v>
+      </c>
+      <c r="H100" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H100" s="5"/>
       <c r="I100" s="5"/>
       <c r="J100" s="5"/>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K100" s="5"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>32</v>
       </c>
@@ -3208,13 +3511,16 @@
         <v>43239.821527777778</v>
       </c>
       <c r="G101" s="5">
+        <v>43239.821527777778</v>
+      </c>
+      <c r="H101" s="5">
         <v>43240.416666666664</v>
       </c>
-      <c r="H101" s="5"/>
       <c r="I101" s="5"/>
       <c r="J101" s="5"/>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K101" s="5"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>32</v>
       </c>
@@ -3234,13 +3540,16 @@
         <v>43240.089583333334</v>
       </c>
       <c r="G102" s="5">
+        <v>43240.089583333334</v>
+      </c>
+      <c r="H102" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H102" s="5"/>
       <c r="I102" s="5"/>
       <c r="J102" s="5"/>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K102" s="5"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>32</v>
       </c>
@@ -3260,13 +3569,16 @@
         <v>43237.604166666664</v>
       </c>
       <c r="G103" s="5">
+        <v>43237.604166666664</v>
+      </c>
+      <c r="H103" s="5">
         <v>43240.416666666664</v>
       </c>
-      <c r="H103" s="5"/>
       <c r="I103" s="5"/>
       <c r="J103" s="5"/>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K103" s="5"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>32</v>
       </c>
@@ -3286,13 +3598,16 @@
         <v>43238.291666666664</v>
       </c>
       <c r="G104" s="5">
+        <v>43238.291666666664</v>
+      </c>
+      <c r="H104" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H104" s="5"/>
       <c r="I104" s="5"/>
       <c r="J104" s="5"/>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K104" s="5"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>32</v>
       </c>
@@ -3312,13 +3627,16 @@
         <v>43239.083333333336</v>
       </c>
       <c r="G105" s="5">
+        <v>43239.083333333336</v>
+      </c>
+      <c r="H105" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H105" s="5"/>
       <c r="I105" s="5"/>
       <c r="J105" s="5"/>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K105" s="5"/>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>28</v>
       </c>
@@ -3338,13 +3656,16 @@
         <v>43237.75</v>
       </c>
       <c r="G106" s="5">
+        <v>43237.75</v>
+      </c>
+      <c r="H106" s="5">
         <v>43247.416666666664</v>
       </c>
-      <c r="H106" s="5"/>
       <c r="I106" s="5"/>
       <c r="J106" s="5"/>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K106" s="5"/>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>32</v>
       </c>
@@ -3364,13 +3685,16 @@
         <v>43241.4375</v>
       </c>
       <c r="G107" s="5">
+        <v>43241.4375</v>
+      </c>
+      <c r="H107" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H107" s="5"/>
       <c r="I107" s="5"/>
       <c r="J107" s="5"/>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K107" s="5"/>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>28</v>
       </c>
@@ -3390,13 +3714,16 @@
         <v>43237.791666666664</v>
       </c>
       <c r="G108" s="5">
+        <v>43237.791666666664</v>
+      </c>
+      <c r="H108" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H108" s="5"/>
       <c r="I108" s="5"/>
       <c r="J108" s="5"/>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K108" s="5"/>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>31</v>
       </c>
@@ -3416,13 +3743,16 @@
         <v>43237.414583333331</v>
       </c>
       <c r="G109" s="5">
+        <v>43237.414583333331</v>
+      </c>
+      <c r="H109" s="5">
         <v>43247.416666666664</v>
       </c>
-      <c r="H109" s="5"/>
       <c r="I109" s="5"/>
       <c r="J109" s="5"/>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K109" s="5"/>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>33</v>
       </c>
@@ -3442,13 +3772,16 @@
         <v>43237.618750000001</v>
       </c>
       <c r="G110" s="5">
+        <v>43237.618750000001</v>
+      </c>
+      <c r="H110" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H110" s="5"/>
       <c r="I110" s="5"/>
       <c r="J110" s="5"/>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K110" s="5"/>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>28</v>
       </c>
@@ -3468,13 +3801,16 @@
         <v>43237.821527777778</v>
       </c>
       <c r="G111" s="5">
+        <v>43237.821527777778</v>
+      </c>
+      <c r="H111" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H111" s="5"/>
       <c r="I111" s="5"/>
       <c r="J111" s="5"/>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K111" s="5"/>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>28</v>
       </c>
@@ -3494,13 +3830,16 @@
         <v>43238.208333333336</v>
       </c>
       <c r="G112" s="5">
+        <v>43238.208333333336</v>
+      </c>
+      <c r="H112" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H112" s="5"/>
       <c r="I112" s="5"/>
       <c r="J112" s="5"/>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K112" s="5"/>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>32</v>
       </c>
@@ -3520,13 +3859,16 @@
         <v>43238.652083333334</v>
       </c>
       <c r="G113" s="5">
+        <v>43238.652083333334</v>
+      </c>
+      <c r="H113" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H113" s="5"/>
       <c r="I113" s="5"/>
       <c r="J113" s="5"/>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K113" s="5"/>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>33</v>
       </c>
@@ -3546,13 +3888,16 @@
         <v>43239.206250000003</v>
       </c>
       <c r="G114" s="5">
+        <v>43239.206250000003</v>
+      </c>
+      <c r="H114" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H114" s="5"/>
       <c r="I114" s="5"/>
       <c r="J114" s="5"/>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K114" s="5"/>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>31</v>
       </c>
@@ -3572,13 +3917,16 @@
         <v>43237.414583333331</v>
       </c>
       <c r="G115" s="5">
+        <v>43237.414583333331</v>
+      </c>
+      <c r="H115" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H115" s="5"/>
       <c r="I115" s="5"/>
       <c r="J115" s="5"/>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K115" s="5"/>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>32</v>
       </c>
@@ -3598,13 +3946,16 @@
         <v>43237.486805555556</v>
       </c>
       <c r="G116" s="5">
+        <v>43237.486805555556</v>
+      </c>
+      <c r="H116" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H116" s="5"/>
       <c r="I116" s="5"/>
       <c r="J116" s="5"/>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K116" s="5"/>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>33</v>
       </c>
@@ -3624,13 +3975,16 @@
         <v>43237.618750000001</v>
       </c>
       <c r="G117" s="5">
+        <v>43237.618750000001</v>
+      </c>
+      <c r="H117" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H117" s="5"/>
       <c r="I117" s="5"/>
       <c r="J117" s="5"/>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K117" s="5"/>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>28</v>
       </c>
@@ -3650,13 +4004,16 @@
         <v>43238.374305555553</v>
       </c>
       <c r="G118" s="5">
+        <v>43238.374305555553</v>
+      </c>
+      <c r="H118" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H118" s="5"/>
       <c r="I118" s="5"/>
       <c r="J118" s="5"/>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K118" s="5"/>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>28</v>
       </c>
@@ -3676,13 +4033,16 @@
         <v>43239.083333333336</v>
       </c>
       <c r="G119" s="5">
+        <v>43239.083333333336</v>
+      </c>
+      <c r="H119" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H119" s="5"/>
       <c r="I119" s="5"/>
       <c r="J119" s="5"/>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K119" s="5"/>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>7</v>
       </c>
@@ -3702,13 +4062,16 @@
         <v>43237.708333333336</v>
       </c>
       <c r="G120" s="5">
+        <v>43237.708333333336</v>
+      </c>
+      <c r="H120" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H120" s="5"/>
       <c r="I120" s="5"/>
       <c r="J120" s="5"/>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K120" s="5"/>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>28</v>
       </c>
@@ -3728,13 +4091,16 @@
         <v>43239.127083333333</v>
       </c>
       <c r="G121" s="5">
+        <v>43239.127083333333</v>
+      </c>
+      <c r="H121" s="5">
         <v>43240.416666666664</v>
       </c>
-      <c r="H121" s="5"/>
       <c r="I121" s="5"/>
       <c r="J121" s="5"/>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K121" s="5"/>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>33</v>
       </c>
@@ -3754,13 +4120,16 @@
         <v>43237.958333333336</v>
       </c>
       <c r="G122" s="5">
+        <v>43237.958333333336</v>
+      </c>
+      <c r="H122" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H122" s="5"/>
       <c r="I122" s="5"/>
       <c r="J122" s="5"/>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K122" s="5"/>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>32</v>
       </c>
@@ -3780,13 +4149,16 @@
         <v>43238.625</v>
       </c>
       <c r="G123" s="5">
+        <v>43238.625</v>
+      </c>
+      <c r="H123" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H123" s="5"/>
       <c r="I123" s="5"/>
       <c r="J123" s="5"/>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K123" s="5"/>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>28</v>
       </c>
@@ -3806,13 +4178,16 @@
         <v>43239.206250000003</v>
       </c>
       <c r="G124" s="5">
+        <v>43239.206250000003</v>
+      </c>
+      <c r="H124" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H124" s="5"/>
       <c r="I124" s="5"/>
       <c r="J124" s="5"/>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K124" s="5"/>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>7</v>
       </c>
@@ -3832,13 +4207,16 @@
         <v>43240.458333333336</v>
       </c>
       <c r="G125" s="5">
+        <v>43240.458333333336</v>
+      </c>
+      <c r="H125" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H125" s="5"/>
       <c r="I125" s="5"/>
       <c r="J125" s="5"/>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K125" s="5"/>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>33</v>
       </c>
@@ -3858,13 +4236,16 @@
         <v>43241.625</v>
       </c>
       <c r="G126" s="5">
+        <v>43241.625</v>
+      </c>
+      <c r="H126" s="5">
         <v>43247.416666666664</v>
       </c>
-      <c r="H126" s="5"/>
       <c r="I126" s="5"/>
       <c r="J126" s="5"/>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K126" s="5"/>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>28</v>
       </c>
@@ -3884,13 +4265,16 @@
         <v>43239.083333333336</v>
       </c>
       <c r="G127" s="5">
+        <v>43239.083333333336</v>
+      </c>
+      <c r="H127" s="5">
         <v>43242.333333333336</v>
       </c>
-      <c r="H127" s="5"/>
       <c r="I127" s="5"/>
       <c r="J127" s="5"/>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K127" s="5"/>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>28</v>
       </c>
@@ -3910,13 +4294,16 @@
         <v>43241.625</v>
       </c>
       <c r="G128" s="5">
+        <v>43241.625</v>
+      </c>
+      <c r="H128" s="5">
         <v>43247.416666666664</v>
       </c>
-      <c r="H128" s="5"/>
       <c r="I128" s="5"/>
       <c r="J128" s="5"/>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K128" s="5"/>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>7</v>
       </c>
@@ -3936,13 +4323,16 @@
         <v>43238.458333333336</v>
       </c>
       <c r="G129" s="5">
+        <v>43238.458333333336</v>
+      </c>
+      <c r="H129" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H129" s="5"/>
       <c r="I129" s="5"/>
       <c r="J129" s="5"/>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K129" s="5"/>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>33</v>
       </c>
@@ -3962,13 +4352,16 @@
         <v>43239.115277777775</v>
       </c>
       <c r="G130" s="5">
+        <v>43239.115277777775</v>
+      </c>
+      <c r="H130" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H130" s="5"/>
       <c r="I130" s="5"/>
       <c r="J130" s="5"/>
-    </row>
-    <row r="131" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K130" s="5"/>
+    </row>
+    <row r="131" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
         <v>33</v>
       </c>
@@ -3988,13 +4381,16 @@
         <v>43227.600694444445</v>
       </c>
       <c r="G131" s="5">
+        <v>43227.600694444445</v>
+      </c>
+      <c r="H131" s="5">
         <v>43240.416666666664</v>
       </c>
-      <c r="H131" s="5"/>
       <c r="I131" s="5"/>
       <c r="J131" s="5"/>
-    </row>
-    <row r="132" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K131" s="5"/>
+    </row>
+    <row r="132" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
         <v>33</v>
       </c>
@@ -4014,13 +4410,16 @@
         <v>43227.604166666664</v>
       </c>
       <c r="G132" s="5">
+        <v>43227.604166666664</v>
+      </c>
+      <c r="H132" s="5">
         <v>43240.416666666664</v>
       </c>
-      <c r="H132" s="5"/>
       <c r="I132" s="5"/>
       <c r="J132" s="5"/>
-    </row>
-    <row r="133" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K132" s="5"/>
+    </row>
+    <row r="133" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
         <v>33</v>
       </c>
@@ -4040,13 +4439,16 @@
         <v>43227.607638888891</v>
       </c>
       <c r="G133" s="5">
+        <v>43227.607638888891</v>
+      </c>
+      <c r="H133" s="5">
         <v>43240.416666666664</v>
       </c>
-      <c r="H133" s="5"/>
       <c r="I133" s="5"/>
       <c r="J133" s="5"/>
-    </row>
-    <row r="134" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K133" s="5"/>
+    </row>
+    <row r="134" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
         <v>33</v>
       </c>
@@ -4066,13 +4468,16 @@
         <v>43227.614583333336</v>
       </c>
       <c r="G134" s="5">
+        <v>43227.614583333336</v>
+      </c>
+      <c r="H134" s="5">
         <v>43240.416666666664</v>
       </c>
-      <c r="H134" s="5"/>
       <c r="I134" s="5"/>
       <c r="J134" s="5"/>
-    </row>
-    <row r="135" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K134" s="5"/>
+    </row>
+    <row r="135" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
         <v>33</v>
       </c>
@@ -4092,13 +4497,16 @@
         <v>43227.625</v>
       </c>
       <c r="G135" s="5">
+        <v>43227.625</v>
+      </c>
+      <c r="H135" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H135" s="5"/>
       <c r="I135" s="5"/>
       <c r="J135" s="5"/>
-    </row>
-    <row r="136" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K135" s="5"/>
+    </row>
+    <row r="136" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
         <v>33</v>
       </c>
@@ -4118,13 +4526,16 @@
         <v>43227.635416666664</v>
       </c>
       <c r="G136" s="5">
+        <v>43227.635416666664</v>
+      </c>
+      <c r="H136" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H136" s="5"/>
       <c r="I136" s="5"/>
       <c r="J136" s="5"/>
-    </row>
-    <row r="137" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K136" s="5"/>
+    </row>
+    <row r="137" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
         <v>33</v>
       </c>
@@ -4144,13 +4555,16 @@
         <v>43227.645833333336</v>
       </c>
       <c r="G137" s="5">
+        <v>43227.645833333336</v>
+      </c>
+      <c r="H137" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H137" s="5"/>
       <c r="I137" s="5"/>
       <c r="J137" s="5"/>
-    </row>
-    <row r="138" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K137" s="5"/>
+    </row>
+    <row r="138" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
         <v>33</v>
       </c>
@@ -4170,13 +4584,16 @@
         <v>43227.65625</v>
       </c>
       <c r="G138" s="5">
+        <v>43227.65625</v>
+      </c>
+      <c r="H138" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H138" s="5"/>
       <c r="I138" s="5"/>
       <c r="J138" s="5"/>
-    </row>
-    <row r="139" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K138" s="5"/>
+    </row>
+    <row r="139" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
         <v>28</v>
       </c>
@@ -4196,13 +4613,16 @@
         <v>43237.666666666664</v>
       </c>
       <c r="G139" s="5">
+        <v>43237.666666666664</v>
+      </c>
+      <c r="H139" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H139" s="5"/>
       <c r="I139" s="5"/>
       <c r="J139" s="5"/>
-    </row>
-    <row r="140" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K139" s="5"/>
+    </row>
+    <row r="140" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
         <v>28</v>
       </c>
@@ -4222,13 +4642,16 @@
         <v>43237.677083333336</v>
       </c>
       <c r="G140" s="5">
+        <v>43237.677083333336</v>
+      </c>
+      <c r="H140" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H140" s="5"/>
       <c r="I140" s="5"/>
       <c r="J140" s="5"/>
-    </row>
-    <row r="141" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K140" s="5"/>
+    </row>
+    <row r="141" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
         <v>28</v>
       </c>
@@ -4248,13 +4671,16 @@
         <v>43237.6875</v>
       </c>
       <c r="G141" s="5">
+        <v>43237.6875</v>
+      </c>
+      <c r="H141" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H141" s="5"/>
       <c r="I141" s="5"/>
       <c r="J141" s="5"/>
-    </row>
-    <row r="142" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K141" s="5"/>
+    </row>
+    <row r="142" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
         <v>28</v>
       </c>
@@ -4274,13 +4700,16 @@
         <v>43237.697916666664</v>
       </c>
       <c r="G142" s="5">
+        <v>43237.697916666664</v>
+      </c>
+      <c r="H142" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H142" s="5"/>
       <c r="I142" s="5"/>
       <c r="J142" s="5"/>
-    </row>
-    <row r="143" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K142" s="5"/>
+    </row>
+    <row r="143" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
         <v>28</v>
       </c>
@@ -4300,13 +4729,16 @@
         <v>43237.708333333336</v>
       </c>
       <c r="G143" s="5">
+        <v>43237.708333333336</v>
+      </c>
+      <c r="H143" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H143" s="5"/>
       <c r="I143" s="5"/>
       <c r="J143" s="5"/>
-    </row>
-    <row r="144" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K143" s="5"/>
+    </row>
+    <row r="144" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
         <v>28</v>
       </c>
@@ -4326,13 +4758,16 @@
         <v>43237.71875</v>
       </c>
       <c r="G144" s="5">
+        <v>43237.71875</v>
+      </c>
+      <c r="H144" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H144" s="5"/>
       <c r="I144" s="5"/>
       <c r="J144" s="5"/>
-    </row>
-    <row r="145" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K144" s="5"/>
+    </row>
+    <row r="145" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
         <v>28</v>
       </c>
@@ -4352,13 +4787,16 @@
         <v>43237.729166666664</v>
       </c>
       <c r="G145" s="5">
+        <v>43237.729166666664</v>
+      </c>
+      <c r="H145" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H145" s="5"/>
       <c r="I145" s="5"/>
       <c r="J145" s="5"/>
-    </row>
-    <row r="146" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K145" s="5"/>
+    </row>
+    <row r="146" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
         <v>28</v>
       </c>
@@ -4378,13 +4816,16 @@
         <v>43237.739583333336</v>
       </c>
       <c r="G146" s="5">
+        <v>43237.739583333336</v>
+      </c>
+      <c r="H146" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H146" s="5"/>
       <c r="I146" s="5"/>
       <c r="J146" s="5"/>
-    </row>
-    <row r="147" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K146" s="5"/>
+    </row>
+    <row r="147" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
         <v>28</v>
       </c>
@@ -4404,13 +4845,16 @@
         <v>43237.75</v>
       </c>
       <c r="G147" s="5">
+        <v>43237.75</v>
+      </c>
+      <c r="H147" s="5">
         <v>43247.416666666664</v>
       </c>
-      <c r="H147" s="5"/>
       <c r="I147" s="5"/>
       <c r="J147" s="5"/>
-    </row>
-    <row r="148" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K147" s="5"/>
+    </row>
+    <row r="148" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
         <v>28</v>
       </c>
@@ -4430,13 +4874,16 @@
         <v>43237.75</v>
       </c>
       <c r="G148" s="5">
+        <v>43237.75</v>
+      </c>
+      <c r="H148" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H148" s="5"/>
       <c r="I148" s="5"/>
       <c r="J148" s="5"/>
-    </row>
-    <row r="149" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K148" s="5"/>
+    </row>
+    <row r="149" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
         <v>28</v>
       </c>
@@ -4456,13 +4903,16 @@
         <v>43237.791666666664</v>
       </c>
       <c r="G149" s="5">
+        <v>43237.791666666664</v>
+      </c>
+      <c r="H149" s="5">
         <v>43247.416666666664</v>
       </c>
-      <c r="H149" s="5"/>
       <c r="I149" s="5"/>
       <c r="J149" s="5"/>
-    </row>
-    <row r="150" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K149" s="5"/>
+    </row>
+    <row r="150" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
         <v>32</v>
       </c>
@@ -4482,13 +4932,16 @@
         <v>43237.8125</v>
       </c>
       <c r="G150" s="5">
+        <v>43237.8125</v>
+      </c>
+      <c r="H150" s="5">
         <v>43247.416666666664</v>
       </c>
-      <c r="H150" s="5"/>
       <c r="I150" s="5"/>
       <c r="J150" s="5"/>
-    </row>
-    <row r="151" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K150" s="5"/>
+    </row>
+    <row r="151" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
         <v>32</v>
       </c>
@@ -4508,13 +4961,16 @@
         <v>43237.833333333336</v>
       </c>
       <c r="G151" s="5">
+        <v>43237.833333333336</v>
+      </c>
+      <c r="H151" s="5">
         <v>43247.416666666664</v>
       </c>
-      <c r="H151" s="5"/>
       <c r="I151" s="5"/>
       <c r="J151" s="5"/>
-    </row>
-    <row r="152" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K151" s="5"/>
+    </row>
+    <row r="152" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
         <v>32</v>
       </c>
@@ -4534,13 +4990,16 @@
         <v>43237.875</v>
       </c>
       <c r="G152" s="5">
+        <v>43237.875</v>
+      </c>
+      <c r="H152" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H152" s="5"/>
       <c r="I152" s="5"/>
       <c r="J152" s="5"/>
-    </row>
-    <row r="153" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K152" s="5"/>
+    </row>
+    <row r="153" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
         <v>32</v>
       </c>
@@ -4560,13 +5019,16 @@
         <v>43237.916666666664</v>
       </c>
       <c r="G153" s="5">
+        <v>43237.916666666664</v>
+      </c>
+      <c r="H153" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H153" s="5"/>
       <c r="I153" s="5"/>
       <c r="J153" s="5"/>
-    </row>
-    <row r="154" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K153" s="5"/>
+    </row>
+    <row r="154" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
         <v>32</v>
       </c>
@@ -4586,13 +5048,16 @@
         <v>43237.9375</v>
       </c>
       <c r="G154" s="5">
+        <v>43237.9375</v>
+      </c>
+      <c r="H154" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H154" s="5"/>
       <c r="I154" s="5"/>
       <c r="J154" s="5"/>
-    </row>
-    <row r="155" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K154" s="5"/>
+    </row>
+    <row r="155" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
         <v>32</v>
       </c>
@@ -4612,13 +5077,16 @@
         <v>43237.958333333336</v>
       </c>
       <c r="G155" s="5">
+        <v>43237.958333333336</v>
+      </c>
+      <c r="H155" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H155" s="5"/>
       <c r="I155" s="5"/>
       <c r="J155" s="5"/>
-    </row>
-    <row r="156" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K155" s="5"/>
+    </row>
+    <row r="156" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
         <v>32</v>
       </c>
@@ -4638,13 +5106,16 @@
         <v>43238</v>
       </c>
       <c r="G156" s="5">
+        <v>43238</v>
+      </c>
+      <c r="H156" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H156" s="5"/>
       <c r="I156" s="5"/>
       <c r="J156" s="5"/>
-    </row>
-    <row r="157" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K156" s="5"/>
+    </row>
+    <row r="157" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
         <v>32</v>
       </c>
@@ -4664,13 +5135,16 @@
         <v>43238.041666666664</v>
       </c>
       <c r="G157" s="5">
+        <v>43238.041666666664</v>
+      </c>
+      <c r="H157" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H157" s="5"/>
       <c r="I157" s="5"/>
       <c r="J157" s="5"/>
-    </row>
-    <row r="158" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K157" s="5"/>
+    </row>
+    <row r="158" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
         <v>32</v>
       </c>
@@ -4690,13 +5164,16 @@
         <v>43238.083333333336</v>
       </c>
       <c r="G158" s="5">
+        <v>43238.083333333336</v>
+      </c>
+      <c r="H158" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H158" s="5"/>
       <c r="I158" s="5"/>
       <c r="J158" s="5"/>
-    </row>
-    <row r="159" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K158" s="5"/>
+    </row>
+    <row r="159" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
         <v>32</v>
       </c>
@@ -4716,13 +5193,16 @@
         <v>43238.09375</v>
       </c>
       <c r="G159" s="5">
+        <v>43238.09375</v>
+      </c>
+      <c r="H159" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H159" s="5"/>
       <c r="I159" s="5"/>
       <c r="J159" s="5"/>
-    </row>
-    <row r="160" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K159" s="5"/>
+    </row>
+    <row r="160" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
         <v>32</v>
       </c>
@@ -4742,13 +5222,16 @@
         <v>43238.125</v>
       </c>
       <c r="G160" s="5">
+        <v>43238.125</v>
+      </c>
+      <c r="H160" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H160" s="5"/>
       <c r="I160" s="5"/>
       <c r="J160" s="5"/>
-    </row>
-    <row r="161" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K160" s="5"/>
+    </row>
+    <row r="161" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
         <v>32</v>
       </c>
@@ -4768,13 +5251,16 @@
         <v>43238.166666666664</v>
       </c>
       <c r="G161" s="5">
+        <v>43238.166666666664</v>
+      </c>
+      <c r="H161" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H161" s="5"/>
       <c r="I161" s="5"/>
       <c r="J161" s="5"/>
-    </row>
-    <row r="162" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K161" s="5"/>
+    </row>
+    <row r="162" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
         <v>32</v>
       </c>
@@ -4794,13 +5280,16 @@
         <v>43238.208333333336</v>
       </c>
       <c r="G162" s="5">
+        <v>43238.208333333336</v>
+      </c>
+      <c r="H162" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H162" s="5"/>
       <c r="I162" s="5"/>
       <c r="J162" s="5"/>
-    </row>
-    <row r="163" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K162" s="5"/>
+    </row>
+    <row r="163" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
         <v>32</v>
       </c>
@@ -4820,13 +5309,16 @@
         <v>43238.25</v>
       </c>
       <c r="G163" s="5">
+        <v>43238.25</v>
+      </c>
+      <c r="H163" s="5">
         <v>43240.416666666664</v>
       </c>
-      <c r="H163" s="5"/>
       <c r="I163" s="5"/>
       <c r="J163" s="5"/>
-    </row>
-    <row r="164" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K163" s="5"/>
+    </row>
+    <row r="164" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
         <v>32</v>
       </c>
@@ -4846,13 +5338,16 @@
         <v>43238.291666666664</v>
       </c>
       <c r="G164" s="5">
+        <v>43238.291666666664</v>
+      </c>
+      <c r="H164" s="5">
         <v>43240.416666666664</v>
       </c>
-      <c r="H164" s="5"/>
       <c r="I164" s="5"/>
       <c r="J164" s="5"/>
-    </row>
-    <row r="165" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K164" s="5"/>
+    </row>
+    <row r="165" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
         <v>31</v>
       </c>
@@ -4872,13 +5367,16 @@
         <v>43238.270833333336</v>
       </c>
       <c r="G165" s="5">
+        <v>43238.270833333336</v>
+      </c>
+      <c r="H165" s="5">
         <v>43240.416666666664</v>
       </c>
-      <c r="H165" s="5"/>
       <c r="I165" s="5"/>
       <c r="J165" s="5"/>
-    </row>
-    <row r="166" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K165" s="5"/>
+    </row>
+    <row r="166" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
         <v>31</v>
       </c>
@@ -4898,13 +5396,16 @@
         <v>43238.333333333336</v>
       </c>
       <c r="G166" s="5">
+        <v>43238.333333333336</v>
+      </c>
+      <c r="H166" s="5">
         <v>43240.416666666664</v>
       </c>
-      <c r="H166" s="5"/>
       <c r="I166" s="5"/>
       <c r="J166" s="5"/>
-    </row>
-    <row r="167" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K166" s="5"/>
+    </row>
+    <row r="167" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
         <v>31</v>
       </c>
@@ -4924,13 +5425,16 @@
         <v>43238.375</v>
       </c>
       <c r="G167" s="5">
+        <v>43238.375</v>
+      </c>
+      <c r="H167" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H167" s="5"/>
       <c r="I167" s="5"/>
       <c r="J167" s="5"/>
-    </row>
-    <row r="168" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K167" s="5"/>
+    </row>
+    <row r="168" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
         <v>31</v>
       </c>
@@ -4950,13 +5454,16 @@
         <v>43238.40625</v>
       </c>
       <c r="G168" s="5">
+        <v>43238.40625</v>
+      </c>
+      <c r="H168" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H168" s="5"/>
       <c r="I168" s="5"/>
       <c r="J168" s="5"/>
-    </row>
-    <row r="169" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K168" s="5"/>
+    </row>
+    <row r="169" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
         <v>31</v>
       </c>
@@ -4976,13 +5483,16 @@
         <v>43238.416666666664</v>
       </c>
       <c r="G169" s="5">
+        <v>43238.416666666664</v>
+      </c>
+      <c r="H169" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H169" s="5"/>
       <c r="I169" s="5"/>
       <c r="J169" s="5"/>
-    </row>
-    <row r="170" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K169" s="5"/>
+    </row>
+    <row r="170" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
         <v>31</v>
       </c>
@@ -5002,13 +5512,16 @@
         <v>43238.458333333336</v>
       </c>
       <c r="G170" s="5">
+        <v>43238.458333333336</v>
+      </c>
+      <c r="H170" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H170" s="5"/>
       <c r="I170" s="5"/>
       <c r="J170" s="5"/>
-    </row>
-    <row r="171" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K170" s="5"/>
+    </row>
+    <row r="171" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
         <v>31</v>
       </c>
@@ -5028,13 +5541,16 @@
         <v>43238.5</v>
       </c>
       <c r="G171" s="5">
+        <v>43238.5</v>
+      </c>
+      <c r="H171" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H171" s="5"/>
       <c r="I171" s="5"/>
       <c r="J171" s="5"/>
-    </row>
-    <row r="172" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K171" s="5"/>
+    </row>
+    <row r="172" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A172" s="1" t="s">
         <v>31</v>
       </c>
@@ -5054,13 +5570,16 @@
         <v>43238.541666666664</v>
       </c>
       <c r="G172" s="5">
+        <v>43238.541666666664</v>
+      </c>
+      <c r="H172" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H172" s="5"/>
       <c r="I172" s="5"/>
       <c r="J172" s="5"/>
-    </row>
-    <row r="173" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K172" s="5"/>
+    </row>
+    <row r="173" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
         <v>31</v>
       </c>
@@ -5080,13 +5599,16 @@
         <v>43238.583333333336</v>
       </c>
       <c r="G173" s="5">
+        <v>43238.583333333336</v>
+      </c>
+      <c r="H173" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H173" s="5"/>
       <c r="I173" s="5"/>
       <c r="J173" s="5"/>
-    </row>
-    <row r="174" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K173" s="5"/>
+    </row>
+    <row r="174" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
         <v>31</v>
       </c>
@@ -5106,13 +5628,16 @@
         <v>43238.625</v>
       </c>
       <c r="G174" s="5">
+        <v>43238.625</v>
+      </c>
+      <c r="H174" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H174" s="5"/>
       <c r="I174" s="5"/>
       <c r="J174" s="5"/>
-    </row>
-    <row r="175" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K174" s="5"/>
+    </row>
+    <row r="175" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
         <v>31</v>
       </c>
@@ -5132,13 +5657,16 @@
         <v>43238.666666666664</v>
       </c>
       <c r="G175" s="5">
+        <v>43238.666666666664</v>
+      </c>
+      <c r="H175" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H175" s="5"/>
       <c r="I175" s="5"/>
       <c r="J175" s="5"/>
-    </row>
-    <row r="176" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K175" s="5"/>
+    </row>
+    <row r="176" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
         <v>31</v>
       </c>
@@ -5158,13 +5686,16 @@
         <v>43238.708333333336</v>
       </c>
       <c r="G176" s="5">
+        <v>43238.708333333336</v>
+      </c>
+      <c r="H176" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H176" s="5"/>
       <c r="I176" s="5"/>
       <c r="J176" s="5"/>
-    </row>
-    <row r="177" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K176" s="5"/>
+    </row>
+    <row r="177" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
         <v>31</v>
       </c>
@@ -5184,13 +5715,16 @@
         <v>43238.75</v>
       </c>
       <c r="G177" s="5">
+        <v>43238.75</v>
+      </c>
+      <c r="H177" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H177" s="5"/>
       <c r="I177" s="5"/>
       <c r="J177" s="5"/>
-    </row>
-    <row r="178" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K177" s="5"/>
+    </row>
+    <row r="178" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
         <v>31</v>
       </c>
@@ -5210,13 +5744,16 @@
         <v>43238.791666666664</v>
       </c>
       <c r="G178" s="5">
+        <v>43238.791666666664</v>
+      </c>
+      <c r="H178" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H178" s="5"/>
       <c r="I178" s="5"/>
       <c r="J178" s="5"/>
-    </row>
-    <row r="179" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K178" s="5"/>
+    </row>
+    <row r="179" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A179" s="1" t="s">
         <v>31</v>
       </c>
@@ -5236,13 +5773,16 @@
         <v>43238.833333333336</v>
       </c>
       <c r="G179" s="5">
+        <v>43238.833333333336</v>
+      </c>
+      <c r="H179" s="5">
         <v>43247.416666666664</v>
       </c>
-      <c r="H179" s="5"/>
       <c r="I179" s="5"/>
       <c r="J179" s="5"/>
-    </row>
-    <row r="180" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K179" s="5"/>
+    </row>
+    <row r="180" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A180" s="1" t="s">
         <v>14</v>
       </c>
@@ -5262,13 +5802,16 @@
         <v>43238.875</v>
       </c>
       <c r="G180" s="5">
+        <v>43238.875</v>
+      </c>
+      <c r="H180" s="5">
         <v>43247.416666666664</v>
       </c>
-      <c r="H180" s="5"/>
       <c r="I180" s="5"/>
       <c r="J180" s="5"/>
-    </row>
-    <row r="181" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K180" s="5"/>
+    </row>
+    <row r="181" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A181" s="1" t="s">
         <v>14</v>
       </c>
@@ -5288,13 +5831,16 @@
         <v>43238.916666666664</v>
       </c>
       <c r="G181" s="5">
+        <v>43238.916666666664</v>
+      </c>
+      <c r="H181" s="5">
         <v>43247.416666666664</v>
       </c>
-      <c r="H181" s="5"/>
       <c r="I181" s="5"/>
       <c r="J181" s="5"/>
-    </row>
-    <row r="182" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K181" s="5"/>
+    </row>
+    <row r="182" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A182" s="1" t="s">
         <v>14</v>
       </c>
@@ -5314,13 +5860,16 @@
         <v>43238.958333333336</v>
       </c>
       <c r="G182" s="5">
+        <v>43238.958333333336</v>
+      </c>
+      <c r="H182" s="5">
         <v>43247.416666666664</v>
       </c>
-      <c r="H182" s="5"/>
       <c r="I182" s="5"/>
       <c r="J182" s="5"/>
-    </row>
-    <row r="183" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K182" s="5"/>
+    </row>
+    <row r="183" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A183" s="1" t="s">
         <v>14</v>
       </c>
@@ -5340,13 +5889,16 @@
         <v>43239</v>
       </c>
       <c r="G183" s="5">
+        <v>43239</v>
+      </c>
+      <c r="H183" s="5">
         <v>43247.416666666664</v>
       </c>
-      <c r="H183" s="5"/>
       <c r="I183" s="5"/>
       <c r="J183" s="5"/>
-    </row>
-    <row r="184" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K183" s="5"/>
+    </row>
+    <row r="184" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A184" s="1" t="s">
         <v>14</v>
       </c>
@@ -5366,13 +5918,16 @@
         <v>43239.041666666664</v>
       </c>
       <c r="G184" s="5">
+        <v>43239.041666666664</v>
+      </c>
+      <c r="H184" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H184" s="5"/>
       <c r="I184" s="5"/>
       <c r="J184" s="5"/>
-    </row>
-    <row r="185" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K184" s="5"/>
+    </row>
+    <row r="185" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A185" s="1" t="s">
         <v>14</v>
       </c>
@@ -5392,13 +5947,16 @@
         <v>43239.083333333336</v>
       </c>
       <c r="G185" s="5">
+        <v>43239.083333333336</v>
+      </c>
+      <c r="H185" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H185" s="5"/>
       <c r="I185" s="5"/>
       <c r="J185" s="5"/>
-    </row>
-    <row r="186" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K185" s="5"/>
+    </row>
+    <row r="186" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A186" s="1" t="s">
         <v>14</v>
       </c>
@@ -5418,13 +5976,16 @@
         <v>43239.125</v>
       </c>
       <c r="G186" s="5">
+        <v>43239.125</v>
+      </c>
+      <c r="H186" s="5">
         <v>43243.416666666664</v>
       </c>
-      <c r="H186" s="5"/>
       <c r="I186" s="5"/>
       <c r="J186" s="5"/>
-    </row>
-    <row r="187" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K186" s="5"/>
+    </row>
+    <row r="187" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A187" s="1" t="s">
         <v>14</v>
       </c>
@@ -5444,13 +6005,16 @@
         <v>43239.125</v>
       </c>
       <c r="G187" s="5">
+        <v>43239.125</v>
+      </c>
+      <c r="H187" s="5">
         <v>43244.416666666664</v>
       </c>
-      <c r="H187" s="5"/>
       <c r="I187" s="5"/>
       <c r="J187" s="5"/>
-    </row>
-    <row r="188" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K187" s="5"/>
+    </row>
+    <row r="188" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A188" s="1" t="s">
         <v>14</v>
       </c>
@@ -5470,13 +6034,16 @@
         <v>43239.125</v>
       </c>
       <c r="G188" s="5">
+        <v>43239.125</v>
+      </c>
+      <c r="H188" s="5">
         <v>43245.416666666664</v>
       </c>
-      <c r="H188" s="5"/>
       <c r="I188" s="5"/>
       <c r="J188" s="5"/>
-    </row>
-    <row r="189" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K188" s="5"/>
+    </row>
+    <row r="189" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A189" s="1" t="s">
         <v>14</v>
       </c>
@@ -5496,13 +6063,16 @@
         <v>43239.125</v>
       </c>
       <c r="G189" s="5">
+        <v>43239.125</v>
+      </c>
+      <c r="H189" s="5">
         <v>43246.416666666664</v>
       </c>
-      <c r="H189" s="5"/>
       <c r="I189" s="5"/>
       <c r="J189" s="5"/>
-    </row>
-    <row r="190" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K189" s="5"/>
+    </row>
+    <row r="190" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A190" s="1" t="s">
         <v>14</v>
       </c>
@@ -5522,13 +6092,16 @@
         <v>43239.125</v>
       </c>
       <c r="G190" s="5">
+        <v>43239.125</v>
+      </c>
+      <c r="H190" s="5">
         <v>43247.416666666664</v>
       </c>
-      <c r="H190" s="5"/>
       <c r="I190" s="5"/>
       <c r="J190" s="5"/>
-    </row>
-    <row r="191" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K190" s="5"/>
+    </row>
+    <row r="191" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A191" s="1" t="s">
         <v>14</v>
       </c>
@@ -5548,13 +6121,16 @@
         <v>43239.125</v>
       </c>
       <c r="G191" s="5">
+        <v>43239.125</v>
+      </c>
+      <c r="H191" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H191" s="5"/>
       <c r="I191" s="5"/>
       <c r="J191" s="5"/>
-    </row>
-    <row r="192" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K191" s="5"/>
+    </row>
+    <row r="192" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A192" s="1" t="s">
         <v>14</v>
       </c>
@@ -5574,13 +6150,16 @@
         <v>43239.125</v>
       </c>
       <c r="G192" s="5">
+        <v>43239.125</v>
+      </c>
+      <c r="H192" s="5">
         <v>43249.416666666664</v>
       </c>
-      <c r="H192" s="5"/>
       <c r="I192" s="5"/>
       <c r="J192" s="5"/>
-    </row>
-    <row r="193" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K192" s="5"/>
+    </row>
+    <row r="193" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A193" s="1" t="s">
         <v>14</v>
       </c>
@@ -5600,13 +6179,16 @@
         <v>43239.416666666664</v>
       </c>
       <c r="G193" s="5">
+        <v>43239.416666666664</v>
+      </c>
+      <c r="H193" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H193" s="5"/>
       <c r="I193" s="5"/>
       <c r="J193" s="5"/>
-    </row>
-    <row r="194" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K193" s="5"/>
+    </row>
+    <row r="194" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A194" s="1" t="s">
         <v>14</v>
       </c>
@@ -5626,13 +6208,16 @@
         <v>43239.458333333336</v>
       </c>
       <c r="G194" s="5">
+        <v>43239.458333333336</v>
+      </c>
+      <c r="H194" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H194" s="5"/>
       <c r="I194" s="5"/>
       <c r="J194" s="5"/>
-    </row>
-    <row r="195" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K194" s="5"/>
+    </row>
+    <row r="195" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A195" s="1" t="s">
         <v>14</v>
       </c>
@@ -5652,13 +6237,16 @@
         <v>43239.5</v>
       </c>
       <c r="G195" s="5">
+        <v>43239.5</v>
+      </c>
+      <c r="H195" s="5">
         <v>43240.416666666664</v>
       </c>
-      <c r="H195" s="5"/>
       <c r="I195" s="5"/>
       <c r="J195" s="5"/>
-    </row>
-    <row r="196" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K195" s="5"/>
+    </row>
+    <row r="196" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A196" s="1" t="s">
         <v>14</v>
       </c>
@@ -5678,13 +6266,16 @@
         <v>43239.541666666664</v>
       </c>
       <c r="G196" s="5">
+        <v>43239.541666666664</v>
+      </c>
+      <c r="H196" s="5">
         <v>43240.416666666664</v>
       </c>
-      <c r="H196" s="5"/>
       <c r="I196" s="5"/>
       <c r="J196" s="5"/>
-    </row>
-    <row r="197" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K196" s="5"/>
+    </row>
+    <row r="197" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A197" s="1" t="s">
         <v>14</v>
       </c>
@@ -5704,13 +6295,16 @@
         <v>43239.583333333336</v>
       </c>
       <c r="G197" s="5">
+        <v>43239.583333333336</v>
+      </c>
+      <c r="H197" s="5">
         <v>43240.416666666664</v>
       </c>
-      <c r="H197" s="5"/>
       <c r="I197" s="5"/>
       <c r="J197" s="5"/>
-    </row>
-    <row r="198" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K197" s="5"/>
+    </row>
+    <row r="198" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A198" s="1" t="s">
         <v>14</v>
       </c>
@@ -5730,13 +6324,16 @@
         <v>43239.625</v>
       </c>
       <c r="G198" s="5">
+        <v>43239.625</v>
+      </c>
+      <c r="H198" s="5">
         <v>43240.416666666664</v>
       </c>
-      <c r="H198" s="5"/>
       <c r="I198" s="5"/>
       <c r="J198" s="5"/>
-    </row>
-    <row r="199" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K198" s="5"/>
+    </row>
+    <row r="199" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A199" s="1" t="s">
         <v>14</v>
       </c>
@@ -5756,13 +6353,16 @@
         <v>43239.666666666664</v>
       </c>
       <c r="G199" s="5">
+        <v>43239.666666666664</v>
+      </c>
+      <c r="H199" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H199" s="5"/>
       <c r="I199" s="5"/>
       <c r="J199" s="5"/>
-    </row>
-    <row r="200" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K199" s="5"/>
+    </row>
+    <row r="200" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A200" s="1" t="s">
         <v>14</v>
       </c>
@@ -5782,13 +6382,16 @@
         <v>43239.708333333336</v>
       </c>
       <c r="G200" s="5">
+        <v>43239.708333333336</v>
+      </c>
+      <c r="H200" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H200" s="5"/>
       <c r="I200" s="5"/>
       <c r="J200" s="5"/>
-    </row>
-    <row r="201" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K200" s="5"/>
+    </row>
+    <row r="201" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A201" s="1" t="s">
         <v>14</v>
       </c>
@@ -5808,13 +6411,16 @@
         <v>43239.75</v>
       </c>
       <c r="G201" s="5">
+        <v>43239.75</v>
+      </c>
+      <c r="H201" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H201" s="5"/>
       <c r="I201" s="5"/>
       <c r="J201" s="5"/>
-    </row>
-    <row r="202" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K201" s="5"/>
+    </row>
+    <row r="202" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A202" s="1" t="s">
         <v>14</v>
       </c>
@@ -5834,13 +6440,16 @@
         <v>43239.833333333336</v>
       </c>
       <c r="G202" s="5">
+        <v>43239.833333333336</v>
+      </c>
+      <c r="H202" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H202" s="5"/>
       <c r="I202" s="5"/>
       <c r="J202" s="5"/>
-    </row>
-    <row r="203" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K202" s="5"/>
+    </row>
+    <row r="203" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A203" s="1" t="s">
         <v>16</v>
       </c>
@@ -5860,13 +6469,16 @@
         <v>43239.791666666664</v>
       </c>
       <c r="G203" s="5">
+        <v>43239.791666666664</v>
+      </c>
+      <c r="H203" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H203" s="5"/>
       <c r="I203" s="5"/>
       <c r="J203" s="5"/>
-    </row>
-    <row r="204" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K203" s="5"/>
+    </row>
+    <row r="204" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A204" s="1" t="s">
         <v>16</v>
       </c>
@@ -5886,13 +6498,16 @@
         <v>43239.875</v>
       </c>
       <c r="G204" s="5">
+        <v>43239.875</v>
+      </c>
+      <c r="H204" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H204" s="5"/>
       <c r="I204" s="5"/>
       <c r="J204" s="5"/>
-    </row>
-    <row r="205" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K204" s="5"/>
+    </row>
+    <row r="205" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A205" s="1" t="s">
         <v>16</v>
       </c>
@@ -5912,13 +6527,16 @@
         <v>43239.916666666664</v>
       </c>
       <c r="G205" s="5">
+        <v>43239.916666666664</v>
+      </c>
+      <c r="H205" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H205" s="5"/>
       <c r="I205" s="5"/>
       <c r="J205" s="5"/>
-    </row>
-    <row r="206" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K205" s="5"/>
+    </row>
+    <row r="206" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A206" s="1" t="s">
         <v>16</v>
       </c>
@@ -5938,13 +6556,16 @@
         <v>43239.958333333336</v>
       </c>
       <c r="G206" s="5">
+        <v>43239.958333333336</v>
+      </c>
+      <c r="H206" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H206" s="5"/>
       <c r="I206" s="5"/>
       <c r="J206" s="5"/>
-    </row>
-    <row r="207" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K206" s="5"/>
+    </row>
+    <row r="207" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A207" s="1" t="s">
         <v>16</v>
       </c>
@@ -5964,13 +6585,16 @@
         <v>43240</v>
       </c>
       <c r="G207" s="5">
+        <v>43240</v>
+      </c>
+      <c r="H207" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H207" s="5"/>
       <c r="I207" s="5"/>
       <c r="J207" s="5"/>
-    </row>
-    <row r="208" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K207" s="5"/>
+    </row>
+    <row r="208" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A208" s="1" t="s">
         <v>16</v>
       </c>
@@ -5990,13 +6614,16 @@
         <v>43240.041666666664</v>
       </c>
       <c r="G208" s="5">
+        <v>43240.041666666664</v>
+      </c>
+      <c r="H208" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H208" s="5"/>
       <c r="I208" s="5"/>
       <c r="J208" s="5"/>
-    </row>
-    <row r="209" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K208" s="5"/>
+    </row>
+    <row r="209" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A209" s="1" t="s">
         <v>16</v>
       </c>
@@ -6016,13 +6643,16 @@
         <v>43240.083333333336</v>
       </c>
       <c r="G209" s="5">
+        <v>43240.083333333336</v>
+      </c>
+      <c r="H209" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H209" s="5"/>
       <c r="I209" s="5"/>
       <c r="J209" s="5"/>
-    </row>
-    <row r="210" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K209" s="5"/>
+    </row>
+    <row r="210" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A210" s="1" t="s">
         <v>16</v>
       </c>
@@ -6042,13 +6672,16 @@
         <v>43240.125</v>
       </c>
       <c r="G210" s="5">
+        <v>43240.125</v>
+      </c>
+      <c r="H210" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H210" s="5"/>
       <c r="I210" s="5"/>
       <c r="J210" s="5"/>
-    </row>
-    <row r="211" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K210" s="5"/>
+    </row>
+    <row r="211" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A211" s="1" t="s">
         <v>16</v>
       </c>
@@ -6068,13 +6701,16 @@
         <v>43240.208333333336</v>
       </c>
       <c r="G211" s="5">
+        <v>43240.208333333336</v>
+      </c>
+      <c r="H211" s="5">
         <v>43247.416666666664</v>
       </c>
-      <c r="H211" s="5"/>
       <c r="I211" s="5"/>
       <c r="J211" s="5"/>
-    </row>
-    <row r="212" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K211" s="5"/>
+    </row>
+    <row r="212" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A212" s="1" t="s">
         <v>16</v>
       </c>
@@ -6094,13 +6730,16 @@
         <v>43240.291666666664</v>
       </c>
       <c r="G212" s="5">
+        <v>43240.291666666664</v>
+      </c>
+      <c r="H212" s="5">
         <v>43247.416666666664</v>
       </c>
-      <c r="H212" s="5"/>
       <c r="I212" s="5"/>
       <c r="J212" s="5"/>
-    </row>
-    <row r="213" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K212" s="5"/>
+    </row>
+    <row r="213" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A213" s="1" t="s">
         <v>16</v>
       </c>
@@ -6120,13 +6759,16 @@
         <v>43240.375</v>
       </c>
       <c r="G213" s="5">
+        <v>43240.375</v>
+      </c>
+      <c r="H213" s="5">
         <v>43247.416666666664</v>
       </c>
-      <c r="H213" s="5"/>
       <c r="I213" s="5"/>
       <c r="J213" s="5"/>
-    </row>
-    <row r="214" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K213" s="5"/>
+    </row>
+    <row r="214" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A214" s="1" t="s">
         <v>16</v>
       </c>
@@ -6146,13 +6788,16 @@
         <v>43240.416666666664</v>
       </c>
       <c r="G214" s="5">
+        <v>43240.416666666664</v>
+      </c>
+      <c r="H214" s="5">
         <v>43247.416666666664</v>
       </c>
-      <c r="H214" s="5"/>
       <c r="I214" s="5"/>
       <c r="J214" s="5"/>
-    </row>
-    <row r="215" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K214" s="5"/>
+    </row>
+    <row r="215" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A215" s="1" t="s">
         <v>16</v>
       </c>
@@ -6172,13 +6817,16 @@
         <v>43240.458333333336</v>
       </c>
       <c r="G215" s="5">
+        <v>43240.458333333336</v>
+      </c>
+      <c r="H215" s="5">
         <v>43247.416666666664</v>
       </c>
-      <c r="H215" s="5"/>
       <c r="I215" s="5"/>
       <c r="J215" s="5"/>
-    </row>
-    <row r="216" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K215" s="5"/>
+    </row>
+    <row r="216" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A216" s="1" t="s">
         <v>16</v>
       </c>
@@ -6198,13 +6846,16 @@
         <v>43240.541666666664</v>
       </c>
       <c r="G216" s="5">
+        <v>43240.541666666664</v>
+      </c>
+      <c r="H216" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H216" s="5"/>
       <c r="I216" s="5"/>
       <c r="J216" s="5"/>
-    </row>
-    <row r="217" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K216" s="5"/>
+    </row>
+    <row r="217" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A217" s="1" t="s">
         <v>16</v>
       </c>
@@ -6224,13 +6875,16 @@
         <v>43240.625</v>
       </c>
       <c r="G217" s="5">
+        <v>43240.625</v>
+      </c>
+      <c r="H217" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H217" s="5"/>
       <c r="I217" s="5"/>
       <c r="J217" s="5"/>
-    </row>
-    <row r="218" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K217" s="5"/>
+    </row>
+    <row r="218" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A218" s="1" t="s">
         <v>16</v>
       </c>
@@ -6250,13 +6904,16 @@
         <v>43240.708333333336</v>
       </c>
       <c r="G218" s="5">
+        <v>43240.708333333336</v>
+      </c>
+      <c r="H218" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H218" s="5"/>
       <c r="I218" s="5"/>
       <c r="J218" s="5"/>
-    </row>
-    <row r="219" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K218" s="5"/>
+    </row>
+    <row r="219" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A219" s="1" t="s">
         <v>16</v>
       </c>
@@ -6276,13 +6933,16 @@
         <v>43240.75</v>
       </c>
       <c r="G219" s="5">
+        <v>43240.75</v>
+      </c>
+      <c r="H219" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H219" s="5"/>
       <c r="I219" s="5"/>
       <c r="J219" s="5"/>
-    </row>
-    <row r="220" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K219" s="5"/>
+    </row>
+    <row r="220" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A220" s="1" t="s">
         <v>16</v>
       </c>
@@ -6302,13 +6962,16 @@
         <v>43240.791666666664</v>
       </c>
       <c r="G220" s="5">
+        <v>43240.791666666664</v>
+      </c>
+      <c r="H220" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H220" s="5"/>
       <c r="I220" s="5"/>
       <c r="J220" s="5"/>
-    </row>
-    <row r="221" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K220" s="5"/>
+    </row>
+    <row r="221" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A221" s="1" t="s">
         <v>16</v>
       </c>
@@ -6328,13 +6991,16 @@
         <v>43240.833333333336</v>
       </c>
       <c r="G221" s="5">
+        <v>43240.833333333336</v>
+      </c>
+      <c r="H221" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H221" s="5"/>
       <c r="I221" s="5"/>
       <c r="J221" s="5"/>
-    </row>
-    <row r="222" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K221" s="5"/>
+    </row>
+    <row r="222" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A222" s="1" t="s">
         <v>16</v>
       </c>
@@ -6354,13 +7020,16 @@
         <v>43240.875</v>
       </c>
       <c r="G222" s="5">
+        <v>43240.875</v>
+      </c>
+      <c r="H222" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H222" s="5"/>
       <c r="I222" s="5"/>
       <c r="J222" s="5"/>
-    </row>
-    <row r="223" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K222" s="5"/>
+    </row>
+    <row r="223" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A223" s="1" t="s">
         <v>32</v>
       </c>
@@ -6380,13 +7049,16 @@
         <v>43240.916666666664</v>
       </c>
       <c r="G223" s="5">
+        <v>43240.916666666664</v>
+      </c>
+      <c r="H223" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H223" s="5"/>
       <c r="I223" s="5"/>
       <c r="J223" s="5"/>
-    </row>
-    <row r="224" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K223" s="5"/>
+    </row>
+    <row r="224" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A224" s="1" t="s">
         <v>33</v>
       </c>
@@ -6406,13 +7078,16 @@
         <v>43240.958333333336</v>
       </c>
       <c r="G224" s="5">
+        <v>43240.958333333336</v>
+      </c>
+      <c r="H224" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H224" s="5"/>
       <c r="I224" s="5"/>
       <c r="J224" s="5"/>
-    </row>
-    <row r="225" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K224" s="5"/>
+    </row>
+    <row r="225" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A225" s="1" t="s">
         <v>33</v>
       </c>
@@ -6432,13 +7107,16 @@
         <v>43241.041666666664</v>
       </c>
       <c r="G225" s="5">
+        <v>43241.041666666664</v>
+      </c>
+      <c r="H225" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H225" s="5"/>
       <c r="I225" s="5"/>
       <c r="J225" s="5"/>
-    </row>
-    <row r="226" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K225" s="5"/>
+    </row>
+    <row r="226" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A226" s="1" t="s">
         <v>33</v>
       </c>
@@ -6458,13 +7136,16 @@
         <v>43241.083333333336</v>
       </c>
       <c r="G226" s="5">
+        <v>43241.083333333336</v>
+      </c>
+      <c r="H226" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H226" s="5"/>
       <c r="I226" s="5"/>
       <c r="J226" s="5"/>
-    </row>
-    <row r="227" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K226" s="5"/>
+    </row>
+    <row r="227" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A227" s="1" t="s">
         <v>33</v>
       </c>
@@ -6484,13 +7165,16 @@
         <v>43241.125</v>
       </c>
       <c r="G227" s="5">
+        <v>43241.125</v>
+      </c>
+      <c r="H227" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H227" s="5"/>
       <c r="I227" s="5"/>
       <c r="J227" s="5"/>
-    </row>
-    <row r="228" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K227" s="5"/>
+    </row>
+    <row r="228" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A228" s="1" t="s">
         <v>33</v>
       </c>
@@ -6510,13 +7194,16 @@
         <v>43241.166666666664</v>
       </c>
       <c r="G228" s="5">
+        <v>43241.166666666664</v>
+      </c>
+      <c r="H228" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H228" s="5"/>
       <c r="I228" s="5"/>
       <c r="J228" s="5"/>
-    </row>
-    <row r="229" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K228" s="5"/>
+    </row>
+    <row r="229" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A229" s="1" t="s">
         <v>33</v>
       </c>
@@ -6536,13 +7223,16 @@
         <v>43241.208333333336</v>
       </c>
       <c r="G229" s="5">
+        <v>43241.208333333336</v>
+      </c>
+      <c r="H229" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H229" s="5"/>
       <c r="I229" s="5"/>
       <c r="J229" s="5"/>
-    </row>
-    <row r="230" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K229" s="5"/>
+    </row>
+    <row r="230" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A230" s="1" t="s">
         <v>33</v>
       </c>
@@ -6562,13 +7252,16 @@
         <v>43241.291666666664</v>
       </c>
       <c r="G230" s="5">
+        <v>43241.291666666664</v>
+      </c>
+      <c r="H230" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H230" s="5"/>
       <c r="I230" s="5"/>
       <c r="J230" s="5"/>
-    </row>
-    <row r="231" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K230" s="5"/>
+    </row>
+    <row r="231" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A231" s="1" t="s">
         <v>33</v>
       </c>
@@ -6588,13 +7281,16 @@
         <v>43241.333333333336</v>
       </c>
       <c r="G231" s="5">
+        <v>43241.333333333336</v>
+      </c>
+      <c r="H231" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H231" s="5"/>
       <c r="I231" s="5"/>
       <c r="J231" s="5"/>
-    </row>
-    <row r="232" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K231" s="5"/>
+    </row>
+    <row r="232" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A232" s="1" t="s">
         <v>33</v>
       </c>
@@ -6614,13 +7310,16 @@
         <v>43241.368055555555</v>
       </c>
       <c r="G232" s="5">
+        <v>43241.368055555555</v>
+      </c>
+      <c r="H232" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H232" s="5"/>
       <c r="I232" s="5"/>
       <c r="J232" s="5"/>
-    </row>
-    <row r="233" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K232" s="5"/>
+    </row>
+    <row r="233" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A233" s="1" t="s">
         <v>33</v>
       </c>
@@ -6640,13 +7339,16 @@
         <v>43241.375</v>
       </c>
       <c r="G233" s="5">
+        <v>43241.375</v>
+      </c>
+      <c r="H233" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H233" s="5"/>
       <c r="I233" s="5"/>
       <c r="J233" s="5"/>
-    </row>
-    <row r="234" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K233" s="5"/>
+    </row>
+    <row r="234" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A234" s="1" t="s">
         <v>32</v>
       </c>
@@ -6666,13 +7368,16 @@
         <v>43241.416666666664</v>
       </c>
       <c r="G234" s="5">
+        <v>43241.416666666664</v>
+      </c>
+      <c r="H234" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H234" s="5"/>
       <c r="I234" s="5"/>
       <c r="J234" s="5"/>
-    </row>
-    <row r="235" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K234" s="5"/>
+    </row>
+    <row r="235" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A235" s="1" t="s">
         <v>32</v>
       </c>
@@ -6692,13 +7397,16 @@
         <v>43241.4375</v>
       </c>
       <c r="G235" s="5">
+        <v>43241.4375</v>
+      </c>
+      <c r="H235" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H235" s="5"/>
       <c r="I235" s="5"/>
       <c r="J235" s="5"/>
-    </row>
-    <row r="236" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K235" s="5"/>
+    </row>
+    <row r="236" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A236" s="1" t="s">
         <v>32</v>
       </c>
@@ -6718,13 +7426,16 @@
         <v>43241.458333333336</v>
       </c>
       <c r="G236" s="5">
+        <v>43241.458333333336</v>
+      </c>
+      <c r="H236" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H236" s="5"/>
       <c r="I236" s="5"/>
       <c r="J236" s="5"/>
-    </row>
-    <row r="237" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K236" s="5"/>
+    </row>
+    <row r="237" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A237" s="1" t="s">
         <v>32</v>
       </c>
@@ -6744,13 +7455,16 @@
         <v>43241.46875</v>
       </c>
       <c r="G237" s="5">
+        <v>43241.46875</v>
+      </c>
+      <c r="H237" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H237" s="5"/>
       <c r="I237" s="5"/>
       <c r="J237" s="5"/>
-    </row>
-    <row r="238" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K237" s="5"/>
+    </row>
+    <row r="238" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A238" s="1" t="s">
         <v>32</v>
       </c>
@@ -6770,13 +7484,16 @@
         <v>43241.479166666664</v>
       </c>
       <c r="G238" s="5">
+        <v>43241.479166666664</v>
+      </c>
+      <c r="H238" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H238" s="5"/>
       <c r="I238" s="5"/>
       <c r="J238" s="5"/>
-    </row>
-    <row r="239" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K238" s="5"/>
+    </row>
+    <row r="239" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A239" s="1" t="s">
         <v>32</v>
       </c>
@@ -6796,13 +7513,16 @@
         <v>43241.5</v>
       </c>
       <c r="G239" s="5">
+        <v>43241.5</v>
+      </c>
+      <c r="H239" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H239" s="5"/>
       <c r="I239" s="5"/>
       <c r="J239" s="5"/>
-    </row>
-    <row r="240" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K239" s="5"/>
+    </row>
+    <row r="240" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A240" s="1" t="s">
         <v>32</v>
       </c>
@@ -6822,13 +7542,16 @@
         <v>43241.541666666664</v>
       </c>
       <c r="G240" s="5">
+        <v>43241.541666666664</v>
+      </c>
+      <c r="H240" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H240" s="5"/>
       <c r="I240" s="5"/>
       <c r="J240" s="5"/>
-    </row>
-    <row r="241" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K240" s="5"/>
+    </row>
+    <row r="241" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A241" s="1" t="s">
         <v>32</v>
       </c>
@@ -6848,13 +7571,16 @@
         <v>43241.607638888891</v>
       </c>
       <c r="G241" s="5">
+        <v>43241.607638888891</v>
+      </c>
+      <c r="H241" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H241" s="5"/>
       <c r="I241" s="5"/>
       <c r="J241" s="5"/>
-    </row>
-    <row r="242" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K241" s="5"/>
+    </row>
+    <row r="242" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A242" s="1" t="s">
         <v>32</v>
       </c>
@@ -6874,13 +7600,16 @@
         <v>43241.625</v>
       </c>
       <c r="G242" s="5">
+        <v>43241.625</v>
+      </c>
+      <c r="H242" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H242" s="5"/>
       <c r="I242" s="5"/>
       <c r="J242" s="5"/>
-    </row>
-    <row r="243" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K242" s="5"/>
+    </row>
+    <row r="243" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A243" s="1" t="s">
         <v>32</v>
       </c>
@@ -6900,13 +7629,16 @@
         <v>43241.708333333336</v>
       </c>
       <c r="G243" s="5">
+        <v>43241.708333333336</v>
+      </c>
+      <c r="H243" s="5">
         <v>43247.416666666664</v>
       </c>
-      <c r="H243" s="5"/>
       <c r="I243" s="5"/>
       <c r="J243" s="5"/>
-    </row>
-    <row r="244" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K243" s="5"/>
+    </row>
+    <row r="244" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A244" s="1" t="s">
         <v>32</v>
       </c>
@@ -6926,13 +7658,16 @@
         <v>43241.791666666664</v>
       </c>
       <c r="G244" s="5">
+        <v>43241.791666666664</v>
+      </c>
+      <c r="H244" s="5">
         <v>43247.416666666664</v>
       </c>
-      <c r="H244" s="5"/>
       <c r="I244" s="5"/>
       <c r="J244" s="5"/>
-    </row>
-    <row r="245" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K244" s="5"/>
+    </row>
+    <row r="245" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A245" s="1" t="s">
         <v>33</v>
       </c>
@@ -6952,13 +7687,16 @@
         <v>43237.604166666664</v>
       </c>
       <c r="G245" s="5">
+        <v>43237.604166666664</v>
+      </c>
+      <c r="H245" s="5">
         <v>43240.416666666664</v>
       </c>
-      <c r="H245" s="5"/>
       <c r="I245" s="5"/>
       <c r="J245" s="5"/>
-    </row>
-    <row r="246" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K245" s="5"/>
+    </row>
+    <row r="246" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A246" s="1" t="s">
         <v>33</v>
       </c>
@@ -6978,13 +7716,16 @@
         <v>43237.708333333336</v>
       </c>
       <c r="G246" s="5">
+        <v>43237.708333333336</v>
+      </c>
+      <c r="H246" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H246" s="5"/>
       <c r="I246" s="5"/>
       <c r="J246" s="5"/>
-    </row>
-    <row r="247" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K246" s="5"/>
+    </row>
+    <row r="247" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A247" s="1" t="s">
         <v>33</v>
       </c>
@@ -7004,13 +7745,16 @@
         <v>43237.791666666664</v>
       </c>
       <c r="G247" s="5">
+        <v>43237.791666666664</v>
+      </c>
+      <c r="H247" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H247" s="5"/>
       <c r="I247" s="5"/>
       <c r="J247" s="5"/>
-    </row>
-    <row r="248" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K247" s="5"/>
+    </row>
+    <row r="248" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A248" s="1" t="s">
         <v>33</v>
       </c>
@@ -7030,13 +7774,16 @@
         <v>43237.958333333336</v>
       </c>
       <c r="G248" s="5">
+        <v>43237.958333333336</v>
+      </c>
+      <c r="H248" s="5">
         <v>43248.416666666664</v>
       </c>
-      <c r="H248" s="5"/>
       <c r="I248" s="5"/>
       <c r="J248" s="5"/>
-    </row>
-    <row r="249" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K248" s="5"/>
+    </row>
+    <row r="249" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A249" s="1" t="s">
         <v>33</v>
       </c>
@@ -7056,13 +7803,16 @@
         <v>43238.291666666664</v>
       </c>
       <c r="G249" s="5">
+        <v>43238.291666666664</v>
+      </c>
+      <c r="H249" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H249" s="5"/>
       <c r="I249" s="5"/>
       <c r="J249" s="5"/>
-    </row>
-    <row r="250" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K249" s="5"/>
+    </row>
+    <row r="250" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A250" s="1" t="s">
         <v>28</v>
       </c>
@@ -7082,13 +7832,16 @@
         <v>43238.458333333336</v>
       </c>
       <c r="G250" s="5">
+        <v>43238.458333333336</v>
+      </c>
+      <c r="H250" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H250" s="5"/>
       <c r="I250" s="5"/>
       <c r="J250" s="5"/>
-    </row>
-    <row r="251" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K250" s="5"/>
+    </row>
+    <row r="251" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A251" s="1" t="s">
         <v>28</v>
       </c>
@@ -7108,13 +7861,16 @@
         <v>43238.625</v>
       </c>
       <c r="G251" s="5">
+        <v>43238.625</v>
+      </c>
+      <c r="H251" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H251" s="5"/>
       <c r="I251" s="5"/>
       <c r="J251" s="5"/>
-    </row>
-    <row r="252" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K251" s="5"/>
+    </row>
+    <row r="252" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A252" s="1" t="s">
         <v>28</v>
       </c>
@@ -7134,13 +7890,16 @@
         <v>43238.791666666664</v>
       </c>
       <c r="G252" s="5">
+        <v>43238.791666666664</v>
+      </c>
+      <c r="H252" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H252" s="5"/>
       <c r="I252" s="5"/>
       <c r="J252" s="5"/>
-    </row>
-    <row r="253" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K252" s="5"/>
+    </row>
+    <row r="253" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A253" s="1" t="s">
         <v>32</v>
       </c>
@@ -7160,13 +7919,16 @@
         <v>43239.083333333336</v>
       </c>
       <c r="G253" s="5">
+        <v>43239.083333333336</v>
+      </c>
+      <c r="H253" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H253" s="5"/>
       <c r="I253" s="5"/>
       <c r="J253" s="5"/>
-    </row>
-    <row r="254" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K253" s="5"/>
+    </row>
+    <row r="254" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A254" s="1" t="s">
         <v>32</v>
       </c>
@@ -7186,13 +7948,16 @@
         <v>43240.291666666664</v>
       </c>
       <c r="G254" s="5">
+        <v>43240.291666666664</v>
+      </c>
+      <c r="H254" s="5">
         <v>43241.416666666664</v>
       </c>
-      <c r="H254" s="5"/>
       <c r="I254" s="5"/>
       <c r="J254" s="5"/>
-    </row>
-    <row r="255" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K254" s="5"/>
+    </row>
+    <row r="255" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A255" s="1" t="s">
         <v>32</v>
       </c>
@@ -7212,13 +7977,16 @@
         <v>43240.458333333336</v>
       </c>
       <c r="G255" s="5">
+        <v>43240.458333333336</v>
+      </c>
+      <c r="H255" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H255" s="5"/>
       <c r="I255" s="5"/>
       <c r="J255" s="5"/>
-    </row>
-    <row r="256" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K255" s="5"/>
+    </row>
+    <row r="256" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A256" s="1" t="s">
         <v>31</v>
       </c>
@@ -7238,13 +8006,16 @@
         <v>43241.291666666664</v>
       </c>
       <c r="G256" s="5">
+        <v>43241.291666666664</v>
+      </c>
+      <c r="H256" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H256" s="5"/>
       <c r="I256" s="5"/>
       <c r="J256" s="5"/>
-    </row>
-    <row r="257" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K256" s="5"/>
+    </row>
+    <row r="257" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A257" s="1" t="s">
         <v>31</v>
       </c>
@@ -7264,95 +8035,98 @@
         <v>43241.625</v>
       </c>
       <c r="G257" s="5">
+        <v>43241.625</v>
+      </c>
+      <c r="H257" s="5">
         <v>43242.416666666664</v>
       </c>
-      <c r="H257" s="5"/>
       <c r="I257" s="5"/>
       <c r="J257" s="5"/>
-    </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="G258" s="5"/>
+      <c r="K257" s="5"/>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H258" s="5"/>
       <c r="I258" s="5"/>
       <c r="J258" s="5"/>
-    </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="G259" s="5"/>
+      <c r="K258" s="5"/>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H259" s="5"/>
       <c r="I259" s="5"/>
       <c r="J259" s="5"/>
-    </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="G260" s="5"/>
+      <c r="K259" s="5"/>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H260" s="5"/>
       <c r="I260" s="5"/>
       <c r="J260" s="5"/>
-    </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="G261" s="5"/>
+      <c r="K260" s="5"/>
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H261" s="5"/>
       <c r="I261" s="5"/>
       <c r="J261" s="5"/>
-    </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="G262" s="5"/>
+      <c r="K261" s="5"/>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H262" s="5"/>
       <c r="I262" s="5"/>
       <c r="J262" s="5"/>
-    </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="G263" s="5"/>
+      <c r="K262" s="5"/>
+    </row>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H263" s="5"/>
       <c r="I263" s="5"/>
       <c r="J263" s="5"/>
-    </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="G264" s="5"/>
+      <c r="K263" s="5"/>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H264" s="5"/>
       <c r="I264" s="5"/>
       <c r="J264" s="5"/>
-    </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="G265" s="5"/>
+      <c r="K264" s="5"/>
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H265" s="5"/>
       <c r="I265" s="5"/>
       <c r="J265" s="5"/>
-    </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="G266" s="5"/>
+      <c r="K265" s="5"/>
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H266" s="5"/>
       <c r="I266" s="5"/>
       <c r="J266" s="5"/>
-    </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="G267" s="5"/>
+      <c r="K266" s="5"/>
+    </row>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H267" s="5"/>
       <c r="I267" s="5"/>
       <c r="J267" s="5"/>
-    </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="G268" s="5"/>
+      <c r="K267" s="5"/>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H268" s="5"/>
       <c r="I268" s="5"/>
       <c r="J268" s="5"/>
-    </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="G269" s="5"/>
+      <c r="K268" s="5"/>
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H269" s="5"/>
       <c r="I269" s="5"/>
       <c r="J269" s="5"/>
-    </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="G270" s="5"/>
+      <c r="K269" s="5"/>
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H270" s="5"/>
       <c r="I270" s="5"/>
       <c r="J270" s="5"/>
-    </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="G271" s="5"/>
+      <c r="K270" s="5"/>
+    </row>
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H271" s="5"/>
       <c r="I271" s="5"/>
       <c r="J271" s="5"/>
+      <c r="K271" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
